--- a/res/thermodynamic_properties_o2.xlsx
+++ b/res/thermodynamic_properties_o2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential (Φ)</t>
+          <t>Gibbs Potential</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Phi (Ф)</t>
         </is>
       </c>
     </row>
@@ -482,7 +487,10 @@
         <v>173.192</v>
       </c>
       <c r="F2" t="n">
-        <v>-2424753.2</v>
+        <v>-14418.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5079.81299</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +510,10 @@
         <v>193.6087169831756</v>
       </c>
       <c r="F3" t="n">
-        <v>-5401546.790694938</v>
+        <v>-32865.35234933681</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2632.127479791448</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +533,10 @@
         <v>205.8135506340058</v>
       </c>
       <c r="F4" t="n">
-        <v>-8426561.701247301</v>
+        <v>-52504.54573040306</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1831.499872433379</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +556,10 @@
         <v>206.004759471247</v>
       </c>
       <c r="F5" t="n">
-        <v>-8484185.384709097</v>
+        <v>-52885.47788450639</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1821.475206448498</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +579,10 @@
         <v>214.9725566641072</v>
       </c>
       <c r="F6" t="n">
-        <v>-11626880.93296091</v>
+        <v>-73954.56475534762</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1418.771325743593</v>
       </c>
     </row>
     <row r="7">
@@ -582,7 +602,10 @@
         <v>222.0391871387523</v>
       </c>
       <c r="F7" t="n">
-        <v>-14819629.29411087</v>
+        <v>-95817.41786883466</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1178.736431386268</v>
       </c>
     </row>
     <row r="8">
@@ -602,7 +625,10 @@
         <v>227.8961701622788</v>
       </c>
       <c r="F8" t="n">
-        <v>-18058454.6537823</v>
+        <v>-118322.4191456823</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1019.783339771218</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +648,10 @@
         <v>232.9150724809599</v>
       </c>
       <c r="F9" t="n">
-        <v>-21341129.70140931</v>
+        <v>-141368.8955859993</v>
+      </c>
+      <c r="G9" t="n">
+        <v>907.0188913297837</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +671,10 @@
         <v>237.3185574581037</v>
       </c>
       <c r="F10" t="n">
-        <v>-24666096.75120552</v>
+        <v>-164885.0380612439</v>
+      </c>
+      <c r="G10" t="n">
+        <v>823.0325853166734</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +694,10 @@
         <v>241.25059163028</v>
       </c>
       <c r="F11" t="n">
-        <v>-28032104.56233752</v>
+        <v>-188816.9874373818</v>
+      </c>
+      <c r="G11" t="n">
+        <v>758.1718654359465</v>
       </c>
     </row>
     <row r="12">
@@ -682,7 +717,10 @@
         <v>244.8096312677354</v>
       </c>
       <c r="F12" t="n">
-        <v>-31438061.41145429</v>
+        <v>-213122.8134875488</v>
+      </c>
+      <c r="G12" t="n">
+        <v>706.6571266697686</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +740,10 @@
         <v>248.0659813856367</v>
       </c>
       <c r="F13" t="n">
-        <v>-34882967.44809371</v>
+        <v>-237768.9186556309</v>
+      </c>
+      <c r="G13" t="n">
+        <v>664.8180136316021</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +763,10 @@
         <v>251.0715976599129</v>
       </c>
       <c r="F14" t="n">
-        <v>-38365880.38916695</v>
+        <v>-262727.7567199204</v>
+      </c>
+      <c r="G14" t="n">
+        <v>630.2126654662071</v>
       </c>
     </row>
     <row r="15">
@@ -742,7 +786,10 @@
         <v>253.8659633399832</v>
       </c>
       <c r="F15" t="n">
-        <v>-41885896.75771309</v>
+        <v>-287976.315336607</v>
+      </c>
+      <c r="G15" t="n">
+        <v>601.1540506920013</v>
       </c>
     </row>
     <row r="16">
@@ -762,7 +809,10 @@
         <v>256.4797875263637</v>
       </c>
       <c r="F16" t="n">
-        <v>-45442140.98052432</v>
+        <v>-313495.0672589217</v>
+      </c>
+      <c r="G16" t="n">
+        <v>576.4396361597455</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +832,10 @@
         <v>258.9374271721321</v>
       </c>
       <c r="F17" t="n">
-        <v>-49033758.72782365</v>
+        <v>-339267.2221711327</v>
+      </c>
+      <c r="G17" t="n">
+        <v>555.1893888350304</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +855,10 @@
         <v>261.2585272573331</v>
       </c>
       <c r="F18" t="n">
-        <v>-52659912.67006385</v>
+        <v>-365278.1785852809</v>
+      </c>
+      <c r="G18" t="n">
+        <v>536.744651950159</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +878,10 @@
         <v>263.4591636419794</v>
       </c>
       <c r="F19" t="n">
-        <v>-56319779.67623398</v>
+        <v>-391515.1130933223</v>
+      </c>
+      <c r="G19" t="n">
+        <v>520.6027927224849</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +901,10 @@
         <v>265.5526592162604</v>
       </c>
       <c r="F20" t="n">
-        <v>-60012548.90599835</v>
+        <v>-417966.6664698597</v>
+      </c>
+      <c r="G20" t="n">
+        <v>506.373687972078</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +924,10 @@
         <v>267.5501793654776</v>
       </c>
       <c r="F21" t="n">
-        <v>-63737420.4750777</v>
+        <v>-444622.6996601241</v>
+      </c>
+      <c r="G21" t="n">
+        <v>493.7499879047315</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +947,10 @@
         <v>269.4611746871583</v>
       </c>
       <c r="F22" t="n">
-        <v>-67493604.49926886</v>
+        <v>-471474.1012244221</v>
+      </c>
+      <c r="G22" t="n">
+        <v>482.4863264881361</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +970,10 @@
         <v>271.2937156873299</v>
       </c>
       <c r="F23" t="n">
-        <v>-71280320.39515457</v>
+        <v>-498512.6333511816</v>
+      </c>
+      <c r="G23" t="n">
+        <v>472.3844900864711</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +993,10 @@
         <v>273.0547496136778</v>
       </c>
       <c r="F24" t="n">
-        <v>-75096796.35890228</v>
+        <v>-525730.807240339</v>
+      </c>
+      <c r="G24" t="n">
+        <v>463.2826443629224</v>
       </c>
     </row>
     <row r="25">
@@ -942,7 +1016,10 @@
         <v>274.750300196824</v>
       </c>
       <c r="F25" t="n">
-        <v>-78942268.97120543</v>
+        <v>-553121.7811719424</v>
+      </c>
+      <c r="G25" t="n">
+        <v>455.0473814185485</v>
       </c>
     </row>
     <row r="26">
@@ -962,7 +1039,10 @@
         <v>276.3856248813319</v>
       </c>
       <c r="F26" t="n">
-        <v>-82815982.89325331</v>
+        <v>-580679.2763216583</v>
+      </c>
+      <c r="G26" t="n">
+        <v>447.5677625409436</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +1062,10 @@
         <v>277.9653399603597</v>
       </c>
       <c r="F27" t="n">
-        <v>-86717190.62950882</v>
+        <v>-608397.5066212913</v>
+      </c>
+      <c r="G27" t="n">
+        <v>440.7507963112047</v>
       </c>
     </row>
     <row r="28">
@@ -1002,7 +1085,10 @@
         <v>279.4935211682033</v>
       </c>
       <c r="F28" t="n">
-        <v>-90645152.34027667</v>
+        <v>-636271.1198520892</v>
+      </c>
+      <c r="G28" t="n">
+        <v>434.517964544963</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1108,10 @@
         <v>280.9737852889018</v>
       </c>
       <c r="F29" t="n">
-        <v>-94599135.69190304</v>
+        <v>-664295.147808412</v>
+      </c>
+      <c r="G29" t="n">
+        <v>428.8025236059039</v>
       </c>
     </row>
     <row r="30">
@@ -1042,7 +1131,10 @@
         <v>282.4093569238649</v>
       </c>
       <c r="F30" t="n">
-        <v>-98578415.73578505</v>
+        <v>-692464.9638504235</v>
+      </c>
+      <c r="G30" t="n">
+        <v>423.547386648174</v>
       </c>
     </row>
     <row r="31">
@@ -1062,7 +1154,10 @@
         <v>283.8031235436476</v>
       </c>
       <c r="F31" t="n">
-        <v>-102582274.8096991</v>
+        <v>-720776.2465251556</v>
+      </c>
+      <c r="G31" t="n">
+        <v>418.7034461080704</v>
       </c>
     </row>
     <row r="32">
@@ -1082,7 +1177,10 @@
         <v>285.1576812072586</v>
       </c>
       <c r="F32" t="n">
-        <v>-106610002.456609</v>
+        <v>-749224.9482087888</v>
+      </c>
+      <c r="G32" t="n">
+        <v>414.2282333711252</v>
       </c>
     </row>
     <row r="33">
@@ -1102,7 +1200,10 @@
         <v>286.4753727852583</v>
       </c>
       <c r="F33" t="n">
-        <v>-110660895.3573025</v>
+        <v>-777807.2679326327</v>
+      </c>
+      <c r="G33" t="n">
+        <v>410.0848392080422</v>
       </c>
     </row>
     <row r="34">
@@ -1122,7 +1223,10 @@
         <v>287.7583201147589</v>
       </c>
       <c r="F34" t="n">
-        <v>-114734257.2740728</v>
+        <v>-806519.627717523</v>
+      </c>
+      <c r="G34" t="n">
+        <v>406.2410377252729</v>
       </c>
     </row>
     <row r="35">
@@ -1142,7 +1246,10 @@
         <v>289.0084512067822</v>
       </c>
       <c r="F35" t="n">
-        <v>-118829399.003296</v>
+        <v>-835358.6518680676</v>
+      </c>
+      <c r="G35" t="n">
+        <v>402.6685704942283</v>
       </c>
     </row>
     <row r="36">
@@ -1162,7 +1269,10 @@
         <v>290.2275233922646</v>
       </c>
       <c r="F36" t="n">
-        <v>-122945638.3352346</v>
+        <v>-864321.1487779989</v>
+      </c>
+      <c r="G36" t="n">
+        <v>399.3425577491892</v>
       </c>
     </row>
     <row r="37">
@@ -1182,7 +1292,10 @@
         <v>291.4171431131381</v>
       </c>
       <c r="F37" t="n">
-        <v>-127082300.0197544</v>
+        <v>-893404.0948771251</v>
+      </c>
+      <c r="G37" t="n">
+        <v>396.2410111346018</v>
       </c>
     </row>
     <row r="38">
@@ -1202,7 +1315,10 @@
         <v>292.5787829255977</v>
       </c>
       <c r="F38" t="n">
-        <v>-131238715.7369153</v>
+        <v>-922604.6204137686</v>
+      </c>
+      <c r="G38" t="n">
+        <v>393.344428171014</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1338,10 @@
         <v>293.7137961738878</v>
       </c>
       <c r="F39" t="n">
-        <v>-135414224.0716058</v>
+        <v>-951919.9968176223</v>
+      </c>
+      <c r="G39" t="n">
+        <v>390.6354529104315</v>
       </c>
     </row>
     <row r="40">
@@ -1242,7 +1361,10 @@
         <v>294.8234297073732</v>
       </c>
       <c r="F40" t="n">
-        <v>-139608170.4915542</v>
+        <v>-981347.625429352</v>
+      </c>
+      <c r="G40" t="n">
+        <v>388.0985905320772</v>
       </c>
     </row>
     <row r="41">
@@ -1262,7 +1384,10 @@
         <v>295.908834945873</v>
       </c>
       <c r="F41" t="n">
-        <v>-143819907.3281755</v>
+        <v>-1010885.027417018</v>
+      </c>
+      <c r="G41" t="n">
+        <v>385.7199661508067</v>
       </c>
     </row>
     <row r="42">
@@ -1282,7 +1407,10 @@
         <v>296.9710775441828</v>
       </c>
       <c r="F42" t="n">
-        <v>-148048793.7598133</v>
+        <v>-1040529.834727095</v>
+      </c>
+      <c r="G42" t="n">
+        <v>383.4871200629112</v>
       </c>
     </row>
     <row r="43">
@@ -1302,7 +1430,10 @@
         <v>298.0111458633377</v>
       </c>
       <c r="F43" t="n">
-        <v>-152294195.7970153</v>
+        <v>-1070279.781940709</v>
+      </c>
+      <c r="G43" t="n">
+        <v>381.3888331767341</v>
       </c>
     </row>
     <row r="44">
@@ -1322,7 +1453,10 @@
         <v>299.0299584211498</v>
       </c>
       <c r="F44" t="n">
-        <v>-156555486.2695433</v>
+        <v>-1100132.698924655</v>
+      </c>
+      <c r="G44" t="n">
+        <v>379.4149775710025</v>
       </c>
     </row>
     <row r="45">
@@ -1342,7 +1476,10 @@
         <v>300.0283704661401</v>
       </c>
       <c r="F45" t="n">
-        <v>-160832044.8148706</v>
+        <v>-1130086.504182536</v>
+      </c>
+      <c r="G45" t="n">
+        <v>377.5563880683056</v>
       </c>
     </row>
     <row r="46">
@@ -1362,7 +1499,10 @@
         <v>301.0071797957853</v>
       </c>
       <c r="F46" t="n">
-        <v>-165123257.8679604</v>
+        <v>-1160139.198824596</v>
+      </c>
+      <c r="G46" t="n">
+        <v>375.8047514618908</v>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1522,10 @@
         <v>301.9671319209797</v>
       </c>
       <c r="F47" t="n">
-        <v>-169428518.6521508</v>
+        <v>-1190288.861085902</v>
+      </c>
+      <c r="G47" t="n">
+        <v>374.1525106340764</v>
       </c>
     </row>
     <row r="48">
@@ -1402,7 +1545,10 @@
         <v>302.908924662932</v>
       </c>
       <c r="F48" t="n">
-        <v>-173747227.171001</v>
+        <v>-1220533.641331936</v>
+      </c>
+      <c r="G48" t="n">
+        <v>372.592781286917</v>
       </c>
     </row>
     <row r="49">
@@ -1422,7 +1568,10 @@
         <v>303.8332122557389</v>
       </c>
       <c r="F49" t="n">
-        <v>-178078790.2009764</v>
+        <v>-1250871.757498598</v>
+      </c>
+      <c r="G49" t="n">
+        <v>371.1192793954244</v>
       </c>
     </row>
     <row r="50">
@@ -1442,7 +1591,10 @@
         <v>304.7406090170791</v>
       </c>
       <c r="F50" t="n">
-        <v>-182422621.2848645</v>
+        <v>-1281301.490920397</v>
+      </c>
+      <c r="G50" t="n">
+        <v>369.7262578100074</v>
       </c>
     </row>
     <row r="51">
@@ -1462,7 +1614,10 @@
         <v>305.6316926404617</v>
       </c>
       <c r="F51" t="n">
-        <v>-186778140.7258354</v>
+        <v>-1311821.182506365</v>
+      </c>
+      <c r="G51" t="n">
+        <v>368.4084506928435</v>
       </c>
     </row>
     <row r="52">
@@ -1482,7 +1637,10 @@
         <v>306.5070071549038</v>
       </c>
       <c r="F52" t="n">
-        <v>-191144775.5820678</v>
+        <v>-1342429.229228226</v>
+      </c>
+      <c r="G52" t="n">
+        <v>367.1610246843359</v>
       </c>
     </row>
     <row r="53">
@@ -1502,7 +1660,10 @@
         <v>307.3670655915541</v>
       </c>
       <c r="F53" t="n">
-        <v>-195521959.6618747</v>
+        <v>-1373124.080889568</v>
+      </c>
+      <c r="G53" t="n">
+        <v>365.9795358697924</v>
       </c>
     </row>
     <row r="54">
@@ -1522,7 +1683,10 @@
         <v>308.2123523914052</v>
       </c>
       <c r="F54" t="n">
-        <v>-199909133.5192733</v>
+        <v>-1403904.237148469</v>
+      </c>
+      <c r="G54" t="n">
+        <v>364.8598917602274</v>
       </c>
     </row>
     <row r="55">
@@ -1542,7 +1706,10 @@
         <v>309.0433255836888</v>
       </c>
       <c r="F55" t="n">
-        <v>-204305744.4499467</v>
+        <v>-1434768.244769198</v>
+      </c>
+      <c r="G55" t="n">
+        <v>363.7983176204478</v>
       </c>
     </row>
     <row r="56">
@@ -1562,7 +1729,10 @@
         <v>309.8604187606713</v>
       </c>
       <c r="F56" t="n">
-        <v>-208711246.4875587</v>
+        <v>-1465714.695081374</v>
+      </c>
+      <c r="G56" t="n">
+        <v>362.7913265768792</v>
       </c>
     </row>
     <row r="57">
@@ -1582,7 +1752,10 @@
         <v>310.6640428712667</v>
       </c>
       <c r="F57" t="n">
-        <v>-213125100.4003795</v>
+        <v>-1496742.221627379</v>
+      </c>
+      <c r="G57" t="n">
+        <v>361.8356930205845</v>
       </c>
     </row>
     <row r="58">
@@ -1602,7 +1775,10 @@
         <v>311.4545878530545</v>
       </c>
       <c r="F58" t="n">
-        <v>-217546773.688193</v>
+        <v>-1527849.497980889</v>
+      </c>
+      <c r="G58" t="n">
+        <v>360.9284288905166</v>
       </c>
     </row>
     <row r="59">
@@ -1622,7 +1798,10 @@
         <v>312.2324241198655</v>
       </c>
       <c r="F59" t="n">
-        <v>-221975740.5794561</v>
+        <v>-1559035.23572126</v>
+      </c>
+      <c r="G59" t="n">
+        <v>360.0667624806137</v>
       </c>
     </row>
     <row r="60">
@@ -1642,7 +1821,10 @@
         <v>312.997903920005</v>
       </c>
       <c r="F60" t="n">
-        <v>-226411482.0286842</v>
+        <v>-1590298.182550081</v>
+      </c>
+      <c r="G60" t="n">
+        <v>359.248119463775</v>
       </c>
     </row>
     <row r="61">
@@ -1662,7 +1844,10 @@
         <v>313.7513625783851</v>
       </c>
       <c r="F61" t="n">
-        <v>-230853485.7140402</v>
+        <v>-1621637.120537644</v>
+      </c>
+      <c r="G61" t="n">
+        <v>358.470105867622</v>
       </c>
     </row>
     <row r="62">
@@ -1682,7 +1867,10 @@
         <v>314.4931196342706</v>
       </c>
       <c r="F62" t="n">
-        <v>-235301246.0351102</v>
+        <v>-1653050.864488319</v>
+      </c>
+      <c r="G62" t="n">
+        <v>357.7304927725003</v>
       </c>
     </row>
     <row r="63">
@@ -1702,7 +1890,10 @@
         <v>315.9427343448066</v>
       </c>
       <c r="F63" t="n">
-        <v>-244212047.777646</v>
+        <v>-1716098.184113093</v>
+      </c>
+      <c r="G63" t="n">
+        <v>356.3582963458497</v>
       </c>
     </row>
     <row r="64">
@@ -1722,7 +1913,10 @@
         <v>317.3490262567395</v>
       </c>
       <c r="F64" t="n">
-        <v>-253139976.8068811</v>
+        <v>-1779431.259004295</v>
+      </c>
+      <c r="G64" t="n">
+        <v>355.1165088273838</v>
       </c>
     </row>
     <row r="65">
@@ -1742,7 +1936,10 @@
         <v>318.7140796584778</v>
       </c>
       <c r="F65" t="n">
-        <v>-262081230.0990295</v>
+        <v>-1843041.64257267</v>
+      </c>
+      <c r="G65" t="n">
+        <v>353.9919956499238</v>
       </c>
     </row>
     <row r="66">
@@ -1762,7 +1959,10 @@
         <v>320.0398080834622</v>
       </c>
       <c r="F66" t="n">
-        <v>-271032112.0085235</v>
+        <v>-1906921.287653987</v>
+      </c>
+      <c r="G66" t="n">
+        <v>352.9732262127461</v>
       </c>
     </row>
     <row r="67">
@@ -1782,7 +1982,10 @@
         <v>321.3279741138904</v>
       </c>
       <c r="F67" t="n">
-        <v>-279989034.226778</v>
+        <v>-1971062.514389252</v>
+      </c>
+      <c r="G67" t="n">
+        <v>352.0500401549777</v>
       </c>
     </row>
     <row r="68">
@@ -1802,7 +2005,10 @@
         <v>322.5802063942047</v>
       </c>
       <c r="F68" t="n">
-        <v>-288948515.7461495</v>
+        <v>-2035457.981778163</v>
+      </c>
+      <c r="G68" t="n">
+        <v>351.2134530935976</v>
       </c>
     </row>
     <row r="69">
@@ -1822,7 +2028,10 @@
         <v>323.7980143131915</v>
       </c>
       <c r="F69" t="n">
-        <v>-297907182.8282864</v>
+        <v>-2100100.662395249</v>
+      </c>
+      <c r="G69" t="n">
+        <v>350.4554942907739</v>
       </c>
     </row>
     <row r="70">
@@ -1842,7 +2051,10 @@
         <v>324.982800727855</v>
       </c>
       <c r="F70" t="n">
-        <v>-306861768.9762222</v>
+        <v>-2164983.819841007</v>
+      </c>
+      <c r="G70" t="n">
+        <v>349.7690703125416</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +2074,10 @@
         <v>326.1358730343478</v>
       </c>
       <c r="F71" t="n">
-        <v>-315809114.9096661</v>
+        <v>-2230100.988567914</v>
+      </c>
+      <c r="G71" t="n">
+        <v>349.1478499675403</v>
       </c>
     </row>
     <row r="72">
@@ -1882,7 +2097,10 @@
         <v>327.2584528371252</v>
       </c>
       <c r="F72" t="n">
-        <v>-324746168.543045</v>
+        <v>-2295445.955776654</v>
+      </c>
+      <c r="G72" t="n">
+        <v>348.5861667637167</v>
       </c>
     </row>
     <row r="73">
@@ -1902,7 +2120,10 @@
         <v>328.3516844240561</v>
       </c>
       <c r="F73" t="n">
-        <v>-333669984.9659203</v>
+        <v>-2361012.745123617</v>
+      </c>
+      <c r="G73" t="n">
+        <v>348.0789358605443</v>
       </c>
     </row>
     <row r="74">
@@ -1922,7 +2143,10 @@
         <v>329.4166422201778</v>
       </c>
       <c r="F74" t="n">
-        <v>-342577726.4254653</v>
+        <v>-2426795.602018678</v>
+      </c>
+      <c r="G74" t="n">
+        <v>347.6215830745294</v>
       </c>
     </row>
     <row r="75">
@@ -1942,7 +2166,10 @@
         <v>330.454337364326</v>
       </c>
       <c r="F75" t="n">
-        <v>-351466662.3107372</v>
+        <v>-2492788.980323799</v>
+      </c>
+      <c r="G75" t="n">
+        <v>347.2099839538128</v>
       </c>
     </row>
     <row r="76">
@@ -1962,7 +2189,10 @@
         <v>331.465723529656</v>
       </c>
       <c r="F76" t="n">
-        <v>-360334169.1385174</v>
+        <v>-2558987.530289516</v>
+      </c>
+      <c r="G76" t="n">
+        <v>346.8404113014482</v>
       </c>
     </row>
     <row r="77">
@@ -1982,7 +2212,10 @@
         <v>332.451702090029</v>
       </c>
       <c r="F77" t="n">
-        <v>-369177730.5405291</v>
+        <v>-2625386.087588543</v>
+      </c>
+      <c r="G77" t="n">
+        <v>346.5094898174801</v>
       </c>
     </row>
     <row r="78">
@@ -2002,7 +2235,10 @@
         <v>333.4131267185439</v>
       </c>
       <c r="F78" t="n">
-        <v>-377994937.2518653</v>
+        <v>-2691979.66332455</v>
+      </c>
+      <c r="G78" t="n">
+        <v>346.2141567632678</v>
       </c>
     </row>
     <row r="79">
@@ -2022,7 +2258,10 @@
         <v>334.350807491505</v>
       </c>
       <c r="F79" t="n">
-        <v>-386783487.1004905</v>
+        <v>-2758763.434910077</v>
+      </c>
+      <c r="G79" t="n">
+        <v>345.9516277398475</v>
       </c>
     </row>
     <row r="80">
@@ -2042,7 +2281,10 @@
         <v>335.2655145603084</v>
       </c>
       <c r="F80" t="n">
-        <v>-395541184.9976885</v>
+        <v>-2825732.737721051</v>
+      </c>
+      <c r="G80" t="n">
+        <v>345.7193668248951</v>
       </c>
     </row>
     <row r="81">
@@ -2062,7 +2304,10 @@
         <v>336.1579814447155</v>
       </c>
       <c r="F81" t="n">
-        <v>-404265942.9293548</v>
+        <v>-2892883.057447015</v>
+      </c>
+      <c r="G81" t="n">
+        <v>345.5150604373779</v>
       </c>
     </row>
     <row r="82">
@@ -2082,7 +2327,10 @@
         <v>337.0289079934121</v>
       </c>
       <c r="F82" t="n">
-        <v>-412955779.9480407</v>
+        <v>-2960210.023066014</v>
+      </c>
+      <c r="G82" t="n">
+        <v>345.3365944009146</v>
       </c>
     </row>
     <row r="83">
@@ -2102,7 +2350,10 @@
         <v>339.1163048609338</v>
       </c>
       <c r="F83" t="n">
-        <v>-434515559.5584081</v>
+        <v>-3129272.796682437</v>
+      </c>
+      <c r="G83" t="n">
+        <v>344.9911760264838</v>
       </c>
     </row>
     <row r="84">
@@ -2122,7 +2373,10 @@
         <v>341.0828887951217</v>
       </c>
       <c r="F84" t="n">
-        <v>-455819311.9825106</v>
+        <v>-3299350.810540574</v>
+      </c>
+      <c r="G84" t="n">
+        <v>344.7694772340335</v>
       </c>
     </row>
     <row r="85">
@@ -2142,7 +2396,10 @@
         <v>342.9374471879703</v>
       </c>
       <c r="F85" t="n">
-        <v>-476844866.0135961</v>
+        <v>-3470385.991290724</v>
+      </c>
+      <c r="G85" t="n">
+        <v>344.6503127512481</v>
       </c>
     </row>
     <row r="86">
@@ -2162,7 +2419,10 @@
         <v>344.6880002295948</v>
       </c>
       <c r="F86" t="n">
-        <v>-497574231.1746943</v>
+        <v>-3642324.461583198</v>
+      </c>
+      <c r="G86" t="n">
+        <v>344.6163775035022</v>
       </c>
     </row>
     <row r="87">
@@ -2182,7 +2442,10 @@
         <v>346.3419262577784</v>
       </c>
       <c r="F87" t="n">
-        <v>-517993597.3340957</v>
+        <v>-3815116.188966357</v>
+      </c>
+      <c r="G87" t="n">
+        <v>344.653442486168</v>
       </c>
     </row>
     <row r="88">
@@ -2202,7 +2465,10 @@
         <v>347.906062508707</v>
       </c>
       <c r="F88" t="n">
-        <v>-538093334.3848017</v>
+        <v>-3988714.691041003</v>
+      </c>
+      <c r="G88" t="n">
+        <v>344.7497405322639</v>
       </c>
     </row>
     <row r="89">
@@ -2222,7 +2488,10 @@
         <v>349.3867868435393</v>
       </c>
       <c r="F89" t="n">
-        <v>-557867991.9751039</v>
+        <v>-4163076.786035065</v>
+      </c>
+      <c r="G89" t="n">
+        <v>344.8954919406453</v>
       </c>
     </row>
     <row r="90">
@@ -2242,7 +2511,10 @@
         <v>350.7900846050513</v>
       </c>
       <c r="F90" t="n">
-        <v>-577316299.2804461</v>
+        <v>-4338162.380374744</v>
+      </c>
+      <c r="G90" t="n">
+        <v>345.0825343979034</v>
       </c>
     </row>
     <row r="91">
@@ -2262,7 +2534,10 @@
         <v>352.1216037373243</v>
       </c>
       <c r="F91" t="n">
-        <v>-596441164.8089175</v>
+        <v>-4513934.286636476</v>
+      </c>
+      <c r="G91" t="n">
+        <v>345.3040315633739</v>
       </c>
     </row>
     <row r="92">
@@ -2282,7 +2557,10 @@
         <v>353.3867005573899</v>
       </c>
       <c r="F92" t="n">
-        <v>-615249676.2343723</v>
+        <v>-4690358.066634838</v>
+      </c>
+      <c r="G92" t="n">
+        <v>345.5542416128741</v>
       </c>
     </row>
     <row r="93">
@@ -2302,7 +2580,10 @@
         <v>354.5904780190448</v>
       </c>
       <c r="F93" t="n">
-        <v>-633753100.2524192</v>
+        <v>-4867401.89545207</v>
+      </c>
+      <c r="G93" t="n">
+        <v>345.8283319314985</v>
       </c>
     </row>
     <row r="94">
@@ -2322,7 +2603,10 @@
         <v>355.7378178998019</v>
       </c>
       <c r="F94" t="n">
-        <v>-651966882.4554811</v>
+        <v>-5045036.443027747</v>
+      </c>
+      <c r="G94" t="n">
+        <v>346.1222296490236</v>
       </c>
     </row>
     <row r="95">
@@ -2342,7 +2626,10 @@
         <v>356.8334080335284</v>
       </c>
       <c r="F95" t="n">
-        <v>-669910647.2238529</v>
+        <v>-5223234.770561919</v>
+      </c>
+      <c r="G95" t="n">
+        <v>346.4325002484804</v>
       </c>
     </row>
     <row r="96">
@@ -2362,7 +2649,10 @@
         <v>357.8817654766033</v>
       </c>
       <c r="F96" t="n">
-        <v>-687608197.6302695</v>
+        <v>-5401972.239485089</v>
+      </c>
+      <c r="G96" t="n">
+        <v>346.7562483359689</v>
       </c>
     </row>
     <row r="97">
@@ -2382,7 +2672,10 @@
         <v>358.8872563151805</v>
       </c>
       <c r="F97" t="n">
-        <v>-705087515.3559469</v>
+        <v>-5581226.431145228</v>
+      </c>
+      <c r="G97" t="n">
+        <v>347.0910360337633</v>
       </c>
     </row>
     <row r="98">
@@ -2402,7 +2695,10 @@
         <v>359.8541126815355</v>
       </c>
       <c r="F98" t="n">
-        <v>-722380760.6164142</v>
+        <v>-5760977.075679493</v>
+      </c>
+      <c r="G98" t="n">
+        <v>347.4348154848281</v>
       </c>
     </row>
     <row r="99">
@@ -2422,7 +2718,10 @@
         <v>360.7864474384919</v>
       </c>
       <c r="F99" t="n">
-        <v>-739524272.095745</v>
+        <v>-5941205.988793967</v>
+      </c>
+      <c r="G99" t="n">
+        <v>347.7858727300081</v>
       </c>
     </row>
     <row r="100">
@@ -2442,7 +2741,10 @@
         <v>361.6882669051981</v>
       </c>
       <c r="F100" t="n">
-        <v>-756558566.8880328</v>
+        <v>-6121897.01538193</v>
+      </c>
+      <c r="G100" t="n">
+        <v>348.1427808066376</v>
       </c>
     </row>
     <row r="101">
@@ -2462,7 +2764,10 @@
         <v>362.5634819296251</v>
       </c>
       <c r="F101" t="n">
-        <v>-773528340.4451312</v>
+        <v>-6303035.979080186</v>
+      </c>
+      <c r="G101" t="n">
+        <v>348.5043603672635</v>
       </c>
     </row>
     <row r="102">
@@ -2482,7 +2787,10 @@
         <v>363.4159175590165</v>
       </c>
       <c r="F102" t="n">
-        <v>-790482466.5298434</v>
+        <v>-6484610.637001668</v>
+      </c>
+      <c r="G102" t="n">
+        <v>348.8696464643745</v>
       </c>
     </row>
   </sheetData>

--- a/res/thermodynamic_properties_o2.xlsx
+++ b/res/thermodynamic_properties_o2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Heat Capacity (Cp)</t>
+          <t>Experimental Cp</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,22 +451,32 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fitted Enthalpy (H)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Enthalpy (H)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Entropy (S)</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Gibbs Potential</t>
+          <t>Experimental Entropy (S)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phi (Ф)</t>
+          <t>Fitted Entropy (S)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Experimental Phi (Φ)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fitted Phi (Φ)</t>
         </is>
       </c>
     </row>
@@ -478,19 +488,25 @@
         <v>29.112</v>
       </c>
       <c r="C2" t="n">
-        <v>28.4389133038361</v>
+        <v>28.43124458742434</v>
       </c>
       <c r="D2" t="n">
         <v>2.901</v>
       </c>
       <c r="E2" t="n">
+        <v>2.901</v>
+      </c>
+      <c r="F2" t="n">
         <v>173.192</v>
       </c>
-      <c r="F2" t="n">
-        <v>-14418.2</v>
-      </c>
       <c r="G2" t="n">
-        <v>5079.81299</v>
+        <v>173.192</v>
+      </c>
+      <c r="H2" t="n">
+        <v>144.182</v>
+      </c>
+      <c r="I2" t="n">
+        <v>141.2648395</v>
       </c>
     </row>
     <row r="3">
@@ -501,19 +517,25 @@
         <v>29.127</v>
       </c>
       <c r="C3" t="n">
-        <v>30.22402257333256</v>
+        <v>30.23190332201673</v>
       </c>
       <c r="D3" t="n">
-        <v>5.856391047298303</v>
+        <v>5.8566401869328</v>
       </c>
       <c r="E3" t="n">
-        <v>193.6087169831756</v>
+        <v>5.812</v>
       </c>
       <c r="F3" t="n">
-        <v>-32865.35234933681</v>
+        <v>193.372</v>
       </c>
       <c r="G3" t="n">
-        <v>2632.127479791448</v>
+        <v>193.6098502649632</v>
+      </c>
+      <c r="H3" t="n">
+        <v>164.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>159.1872664705621</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +546,25 @@
         <v>29.378</v>
       </c>
       <c r="C4" t="n">
-        <v>30.90580084837023</v>
+        <v>30.91740062966868</v>
       </c>
       <c r="D4" t="n">
-        <v>8.858764391125773</v>
+        <v>8.859996449579432</v>
       </c>
       <c r="E4" t="n">
-        <v>205.8135506340058</v>
+        <v>8.68</v>
       </c>
       <c r="F4" t="n">
-        <v>-52504.54573040306</v>
+        <v>205.035</v>
       </c>
       <c r="G4" t="n">
-        <v>1831.499872433379</v>
+        <v>205.8186278716714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>175.921</v>
+      </c>
+      <c r="I4" t="n">
+        <v>170.5398719032577</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +575,25 @@
         <v>29.387</v>
       </c>
       <c r="C5" t="n">
-        <v>30.91642667586485</v>
+        <v>30.92807174546328</v>
       </c>
       <c r="D5" t="n">
-        <v>8.915949956867722</v>
+        <v>8.917203519091986</v>
       </c>
       <c r="E5" t="n">
-        <v>206.004759471247</v>
+        <v>8.734999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-52885.47788450639</v>
+        <v>205.217</v>
       </c>
       <c r="G5" t="n">
-        <v>1821.475206448498</v>
+        <v>206.0099084593115</v>
+      </c>
+      <c r="H5" t="n">
+        <v>176.101</v>
+      </c>
+      <c r="I5" t="n">
+        <v>170.7201927745505</v>
       </c>
     </row>
     <row r="6">
@@ -570,19 +604,25 @@
         <v>30.108</v>
       </c>
       <c r="C6" t="n">
-        <v>31.43996677307318</v>
+        <v>31.45346123125731</v>
       </c>
       <c r="D6" t="n">
-        <v>12.03445791029527</v>
+        <v>12.03697685466997</v>
       </c>
       <c r="E6" t="n">
-        <v>214.9725566641072</v>
+        <v>11.706</v>
       </c>
       <c r="F6" t="n">
-        <v>-73954.56475534762</v>
+        <v>213.76</v>
       </c>
       <c r="G6" t="n">
-        <v>1418.771325743593</v>
+        <v>214.9813229023114</v>
+      </c>
+      <c r="H6" t="n">
+        <v>184.495</v>
+      </c>
+      <c r="I6" t="n">
+        <v>179.2430907465073</v>
       </c>
     </row>
     <row r="7">
@@ -593,19 +633,25 @@
         <v>31.093</v>
       </c>
       <c r="C7" t="n">
-        <v>31.90851862689412</v>
+        <v>31.92316999097339</v>
       </c>
       <c r="D7" t="n">
-        <v>15.20217570054149</v>
+        <v>15.20610613312479</v>
       </c>
       <c r="E7" t="n">
-        <v>222.0391871387523</v>
+        <v>14.765</v>
       </c>
       <c r="F7" t="n">
-        <v>-95817.41786883466</v>
+        <v>220.582</v>
       </c>
       <c r="G7" t="n">
-        <v>1178.736431386268</v>
+        <v>222.0510836776983</v>
+      </c>
+      <c r="H7" t="n">
+        <v>191.052</v>
+      </c>
+      <c r="I7" t="n">
+        <v>186.0337717388071</v>
       </c>
     </row>
     <row r="8">
@@ -616,19 +662,25 @@
         <v>32.093</v>
       </c>
       <c r="C8" t="n">
-        <v>32.35023173433212</v>
+        <v>32.36565469715088</v>
       </c>
       <c r="D8" t="n">
-        <v>18.41528295168493</v>
+        <v>18.42071998240934</v>
       </c>
       <c r="E8" t="n">
-        <v>227.8961701622788</v>
+        <v>17.925</v>
       </c>
       <c r="F8" t="n">
-        <v>-118322.4191456823</v>
+        <v>226.34</v>
       </c>
       <c r="G8" t="n">
-        <v>1019.783339771218</v>
+        <v>227.9107927031317</v>
+      </c>
+      <c r="H8" t="n">
+        <v>196.465</v>
+      </c>
+      <c r="I8" t="n">
+        <v>191.6997710060928</v>
       </c>
     </row>
     <row r="9">
@@ -639,19 +691,25 @@
         <v>32.986</v>
       </c>
       <c r="C9" t="n">
-        <v>32.77479518629081</v>
+        <v>32.79071451990496</v>
       </c>
       <c r="D9" t="n">
-        <v>21.67165515067263</v>
+        <v>21.6786616628613</v>
       </c>
       <c r="E9" t="n">
-        <v>232.9150724809599</v>
+        <v>21.18</v>
       </c>
       <c r="F9" t="n">
-        <v>-141368.8955859993</v>
+        <v>231.356</v>
       </c>
       <c r="G9" t="n">
-        <v>907.0188913297837</v>
+        <v>232.9320905565787</v>
+      </c>
+      <c r="H9" t="n">
+        <v>201.099</v>
+      </c>
+      <c r="I9" t="n">
+        <v>196.5764531595088</v>
       </c>
     </row>
     <row r="10">
@@ -662,19 +720,25 @@
         <v>33.739</v>
       </c>
       <c r="C10" t="n">
-        <v>33.18629509910976</v>
+        <v>33.20248583347614</v>
       </c>
       <c r="D10" t="n">
-        <v>24.96980790523903</v>
+        <v>24.97842205317556</v>
       </c>
       <c r="E10" t="n">
-        <v>237.3185574581037</v>
+        <v>24.517</v>
       </c>
       <c r="F10" t="n">
-        <v>-164885.0380612439</v>
+        <v>235.811</v>
       </c>
       <c r="G10" t="n">
-        <v>823.0325853166734</v>
+        <v>237.3376948630894</v>
+      </c>
+      <c r="H10" t="n">
+        <v>205.165</v>
+      </c>
+      <c r="I10" t="n">
+        <v>200.868316078876</v>
       </c>
     </row>
     <row r="11">
@@ -685,19 +749,25 @@
         <v>34.363</v>
       </c>
       <c r="C11" t="n">
-        <v>33.58671839383298</v>
+        <v>33.602983404319</v>
       </c>
       <c r="D11" t="n">
-        <v>28.30854502987027</v>
+        <v>28.31878397906173</v>
       </c>
       <c r="E11" t="n">
-        <v>241.25059163028</v>
+        <v>27.923</v>
       </c>
       <c r="F11" t="n">
-        <v>-188816.9874373818</v>
+        <v>239.822</v>
       </c>
       <c r="G11" t="n">
-        <v>758.1718654359465</v>
+        <v>241.2716116170746</v>
+      </c>
+      <c r="H11" t="n">
+        <v>208.796</v>
+      </c>
+      <c r="I11" t="n">
+        <v>204.7092109149799</v>
       </c>
     </row>
     <row r="12">
@@ -708,19 +778,25 @@
         <v>34.88</v>
       </c>
       <c r="C12" t="n">
-        <v>33.9771431594806</v>
+        <v>33.99330346353211</v>
       </c>
       <c r="D12" t="n">
-        <v>31.68681778018656</v>
+        <v>31.69867994470715</v>
       </c>
       <c r="E12" t="n">
-        <v>244.8096312677354</v>
+        <v>31.386</v>
       </c>
       <c r="F12" t="n">
-        <v>-213122.8134875488</v>
+        <v>243.471</v>
       </c>
       <c r="G12" t="n">
-        <v>706.6571266697686</v>
+        <v>244.8323264065994</v>
+      </c>
+      <c r="H12" t="n">
+        <v>212.084</v>
+      </c>
+      <c r="I12" t="n">
+        <v>208.191515232184</v>
       </c>
     </row>
     <row r="13">
@@ -731,19 +807,25 @@
         <v>35.312</v>
       </c>
       <c r="C13" t="n">
-        <v>34.3582099261274</v>
+        <v>34.37410001158065</v>
       </c>
       <c r="D13" t="n">
-        <v>35.10366086856951</v>
+        <v>35.11712746526004</v>
       </c>
       <c r="E13" t="n">
-        <v>248.0659813856367</v>
+        <v>34.897</v>
       </c>
       <c r="F13" t="n">
-        <v>-237768.9186556309</v>
+        <v>246.816</v>
       </c>
       <c r="G13" t="n">
-        <v>664.8180136316021</v>
+        <v>248.0901666475314</v>
+      </c>
+      <c r="H13" t="n">
+        <v>215.092</v>
+      </c>
+      <c r="I13" t="n">
+        <v>211.3816617166303</v>
       </c>
     </row>
     <row r="14">
@@ -754,19 +836,25 @@
         <v>35.681</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7303306412861</v>
+        <v>34.74579602585899</v>
       </c>
       <c r="D14" t="n">
-        <v>38.55816047197506</v>
+        <v>38.57319673307113</v>
       </c>
       <c r="E14" t="n">
-        <v>251.0715976599129</v>
+        <v>38.447</v>
       </c>
       <c r="F14" t="n">
-        <v>-262727.7567199204</v>
+        <v>249.904</v>
       </c>
       <c r="G14" t="n">
-        <v>630.2126654662071</v>
+        <v>251.0971056148626</v>
+      </c>
+      <c r="H14" t="n">
+        <v>217.866</v>
+      </c>
+      <c r="I14" t="n">
+        <v>214.3290227231624</v>
       </c>
     </row>
     <row r="15">
@@ -777,19 +865,25 @@
         <v>36.005</v>
       </c>
       <c r="C15" t="n">
-        <v>35.09378983747918</v>
+        <v>35.10868570839888</v>
       </c>
       <c r="D15" t="n">
-        <v>42.04943700537111</v>
+        <v>42.06599320720832</v>
       </c>
       <c r="E15" t="n">
-        <v>253.8659633399832</v>
+        <v>42.031</v>
       </c>
       <c r="F15" t="n">
-        <v>-287976.315336607</v>
+        <v>252.774</v>
       </c>
       <c r="G15" t="n">
-        <v>601.1540506920013</v>
+        <v>253.8926407486585</v>
+      </c>
+      <c r="H15" t="n">
+        <v>220.442</v>
+      </c>
+      <c r="I15" t="n">
+        <v>217.0712923148677</v>
       </c>
     </row>
     <row r="16">
@@ -800,19 +894,25 @@
         <v>36.296</v>
       </c>
       <c r="C16" t="n">
-        <v>35.4487971688425</v>
+        <v>35.46298758339096</v>
       </c>
       <c r="D16" t="n">
-        <v>45.57663527798741</v>
+        <v>45.59464766460798</v>
       </c>
       <c r="E16" t="n">
-        <v>256.4797875263637</v>
+        <v>45.646</v>
       </c>
       <c r="F16" t="n">
-        <v>-313495.0672589217</v>
+        <v>255.453</v>
       </c>
       <c r="G16" t="n">
-        <v>576.4396361597455</v>
+        <v>256.5074928659782</v>
+      </c>
+      <c r="H16" t="n">
+        <v>222.848</v>
+      </c>
+      <c r="I16" t="n">
+        <v>219.6379013558886</v>
       </c>
     </row>
     <row r="17">
@@ -823,19 +923,25 @@
         <v>36.566</v>
       </c>
       <c r="C17" t="n">
-        <v>35.79551630808745</v>
+        <v>35.80887370267127</v>
       </c>
       <c r="D17" t="n">
-        <v>49.13891858706545</v>
+        <v>49.15831023076567</v>
       </c>
       <c r="E17" t="n">
-        <v>258.9374271721321</v>
+        <v>49.29</v>
       </c>
       <c r="F17" t="n">
-        <v>-339267.2221711327</v>
+        <v>257.966</v>
       </c>
       <c r="G17" t="n">
-        <v>555.1893888350304</v>
+        <v>258.9660288027228</v>
+      </c>
+      <c r="H17" t="n">
+        <v>225.106</v>
+      </c>
+      <c r="I17" t="n">
+        <v>222.0522694138513</v>
       </c>
     </row>
     <row r="18">
@@ -846,19 +952,25 @@
         <v>36.822</v>
       </c>
       <c r="C18" t="n">
-        <v>36.13408162282503</v>
+        <v>36.14648650009351</v>
       </c>
       <c r="D18" t="n">
-        <v>52.73546502645212</v>
+        <v>52.75614664891788</v>
       </c>
       <c r="E18" t="n">
-        <v>261.2585272573331</v>
+        <v>52.959</v>
       </c>
       <c r="F18" t="n">
-        <v>-365278.1785852809</v>
+        <v>260.334</v>
       </c>
       <c r="G18" t="n">
-        <v>536.744651950159</v>
+        <v>261.2879020366754</v>
+      </c>
+      <c r="H18" t="n">
+        <v>227.235</v>
+      </c>
+      <c r="I18" t="n">
+        <v>224.3333385294624</v>
       </c>
     </row>
     <row r="19">
@@ -869,19 +981,25 @@
         <v>37.069</v>
       </c>
       <c r="C19" t="n">
-        <v>36.46460819974647</v>
+        <v>36.47594892273492</v>
       </c>
       <c r="D19" t="n">
-        <v>56.36546509804262</v>
+        <v>56.38733586598313</v>
       </c>
       <c r="E19" t="n">
-        <v>263.4591636419794</v>
+        <v>56.654</v>
       </c>
       <c r="F19" t="n">
-        <v>-391515.1130933223</v>
+        <v>262.574</v>
       </c>
       <c r="G19" t="n">
-        <v>520.6027927224849</v>
+        <v>263.4891958613576</v>
+      </c>
+      <c r="H19" t="n">
+        <v>229.248</v>
+      </c>
+      <c r="I19" t="n">
+        <v>226.4966471716727</v>
       </c>
     </row>
     <row r="20">
@@ -892,19 +1010,25 @@
         <v>37.31</v>
       </c>
       <c r="C20" t="n">
-        <v>36.78719808508504</v>
+        <v>36.79737073798565</v>
       </c>
       <c r="D20" t="n">
-        <v>60.02812011940907</v>
+        <v>60.05106842318943</v>
       </c>
       <c r="E20" t="n">
-        <v>265.5526592162604</v>
+        <v>60.373</v>
       </c>
       <c r="F20" t="n">
-        <v>-417966.6664698597</v>
+        <v>264.7</v>
       </c>
       <c r="G20" t="n">
-        <v>506.373687972078</v>
+        <v>265.5832397701245</v>
+      </c>
+      <c r="H20" t="n">
+        <v>231.159</v>
+      </c>
+      <c r="I20" t="n">
+        <v>228.5551004308232</v>
       </c>
     </row>
     <row r="21">
@@ -915,19 +1039,25 @@
         <v>37.547</v>
       </c>
       <c r="C21" t="n">
-        <v>37.10194428974567</v>
+        <v>37.11085258143995</v>
       </c>
       <c r="D21" t="n">
-        <v>63.72264113428329</v>
+        <v>63.74654535492451</v>
       </c>
       <c r="E21" t="n">
-        <v>267.5501793654776</v>
+        <v>64.116</v>
       </c>
       <c r="F21" t="n">
-        <v>-444622.6996601241</v>
+        <v>266.723</v>
       </c>
       <c r="G21" t="n">
-        <v>493.7499879047315</v>
+        <v>267.5812050945754</v>
+      </c>
+      <c r="H21" t="n">
+        <v>232.978</v>
+      </c>
+      <c r="I21" t="n">
+        <v>230.5195340257083</v>
       </c>
     </row>
     <row r="22">
@@ -938,19 +1068,25 @@
         <v>37.783</v>
       </c>
       <c r="C22" t="n">
-        <v>37.40893342946794</v>
+        <v>37.41648862524743</v>
       </c>
       <c r="D22" t="n">
-        <v>67.44824814989454</v>
+        <v>67.47297741793116</v>
       </c>
       <c r="E22" t="n">
-        <v>269.4611746871583</v>
+        <v>67.88200000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>-471474.1012244221</v>
+        <v>268.655</v>
       </c>
       <c r="G22" t="n">
-        <v>482.4863264881361</v>
+        <v>269.4925478523916</v>
+      </c>
+      <c r="H22" t="n">
+        <v>234.714</v>
+      </c>
+      <c r="I22" t="n">
+        <v>232.399134992786</v>
       </c>
     </row>
     <row r="23">
@@ -961,19 +1097,25 @@
         <v>38.016</v>
       </c>
       <c r="C23" t="n">
-        <v>37.70824750689346</v>
+        <v>37.71436837920708</v>
       </c>
       <c r="D23" t="n">
-        <v>71.20416959221117</v>
+        <v>71.22958454073235</v>
       </c>
       <c r="E23" t="n">
-        <v>271.2937156873299</v>
+        <v>71.672</v>
       </c>
       <c r="F23" t="n">
-        <v>-498512.6333511816</v>
+        <v>270.504</v>
       </c>
       <c r="G23" t="n">
-        <v>472.3844900864711</v>
+        <v>271.3253435435447</v>
+      </c>
+      <c r="H23" t="n">
+        <v>236.375</v>
+      </c>
+      <c r="I23" t="n">
+        <v>234.2017606442047</v>
       </c>
     </row>
     <row r="24">
@@ -984,19 +1126,25 @@
         <v>38.248</v>
       </c>
       <c r="C24" t="n">
-        <v>37.99996514008272</v>
+        <v>38.00457793240049</v>
       </c>
       <c r="D24" t="n">
-        <v>74.98964190975218</v>
+        <v>75.01559542321317</v>
       </c>
       <c r="E24" t="n">
-        <v>273.0547496136778</v>
+        <v>75.486</v>
       </c>
       <c r="F24" t="n">
-        <v>-525730.807240339</v>
+        <v>272.278</v>
       </c>
       <c r="G24" t="n">
-        <v>463.2826443629224</v>
+        <v>273.0865440608578</v>
+      </c>
+      <c r="H24" t="n">
+        <v>237.967</v>
+      </c>
+      <c r="I24" t="n">
+        <v>235.9341839527921</v>
       </c>
     </row>
     <row r="25">
@@ -1007,19 +1155,25 @@
         <v>38.478</v>
       </c>
       <c r="C25" t="n">
-        <v>38.28416242561293</v>
+        <v>38.28720082550494</v>
       </c>
       <c r="D25" t="n">
-        <v>78.80390928075273</v>
+        <v>78.83024724065963</v>
       </c>
       <c r="E25" t="n">
-        <v>274.750300196824</v>
+        <v>79.322</v>
       </c>
       <c r="F25" t="n">
-        <v>-553121.7811719424</v>
+        <v>273.983</v>
       </c>
       <c r="G25" t="n">
-        <v>455.0473814185485</v>
+        <v>274.7821774919598</v>
+      </c>
+      <c r="H25" t="n">
+        <v>239.496</v>
+      </c>
+      <c r="I25" t="n">
+        <v>237.6022848305222</v>
       </c>
     </row>
     <row r="26">
@@ -1030,19 +1184,25 @@
         <v>38.705</v>
       </c>
       <c r="C26" t="n">
-        <v>38.56091355539794</v>
+        <v>38.56231867419879</v>
       </c>
       <c r="D26" t="n">
-        <v>82.64622339353812</v>
+        <v>82.67278542178779</v>
       </c>
       <c r="E26" t="n">
-        <v>276.3856248813319</v>
+        <v>83.181</v>
       </c>
       <c r="F26" t="n">
-        <v>-580679.2763216583</v>
+        <v>275.626</v>
       </c>
       <c r="G26" t="n">
-        <v>447.5677625409436</v>
+        <v>276.4175053983768</v>
+      </c>
+      <c r="H26" t="n">
+        <v>240.967</v>
+      </c>
+      <c r="I26" t="n">
+        <v>239.2112010118765</v>
       </c>
     </row>
     <row r="27">
@@ -1053,19 +1213,25 @@
         <v>38.929</v>
       </c>
       <c r="C27" t="n">
-        <v>38.83029126438718</v>
+        <v>38.83001162164039</v>
       </c>
       <c r="D27" t="n">
-        <v>86.51584327960794</v>
+        <v>86.54246348004601</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9653399603597</v>
+        <v>87.063</v>
       </c>
       <c r="F27" t="n">
-        <v>-608397.5066212913</v>
+        <v>277.21</v>
       </c>
       <c r="G27" t="n">
-        <v>440.7507963112047</v>
+        <v>277.9971479886768</v>
+      </c>
+      <c r="H27" t="n">
+        <v>242.385</v>
+      </c>
+      <c r="I27" t="n">
+        <v>240.765448364083</v>
       </c>
     </row>
     <row r="28">
@@ -1076,19 +1242,25 @@
         <v>39.15</v>
       </c>
       <c r="C28" t="n">
-        <v>39.09236716013454</v>
+        <v>39.09035867155565</v>
       </c>
       <c r="D28" t="n">
-        <v>90.41203518523935</v>
+        <v>90.43854288384715</v>
       </c>
       <c r="E28" t="n">
-        <v>279.4935211682033</v>
+        <v>90.967</v>
       </c>
       <c r="F28" t="n">
-        <v>-636271.1198520892</v>
+        <v>278.741</v>
       </c>
       <c r="G28" t="n">
-        <v>434.517964544963</v>
+        <v>279.5251847421151</v>
+      </c>
+      <c r="H28" t="n">
+        <v>243.754</v>
+      </c>
+      <c r="I28" t="n">
+        <v>242.2690177685503</v>
       </c>
     </row>
     <row r="29">
@@ -1099,19 +1271,25 @@
         <v>39.366</v>
       </c>
       <c r="C29" t="n">
-        <v>39.34721196856196</v>
+        <v>39.34343793662566</v>
       </c>
       <c r="D29" t="n">
-        <v>94.334072471623</v>
+        <v>94.3602929556383</v>
       </c>
       <c r="E29" t="n">
-        <v>280.9737852889018</v>
+        <v>94.893</v>
       </c>
       <c r="F29" t="n">
-        <v>-664295.147808412</v>
+        <v>280.223</v>
       </c>
       <c r="G29" t="n">
-        <v>428.8025236059039</v>
+        <v>281.0052360425813</v>
+      </c>
+      <c r="H29" t="n">
+        <v>245.078</v>
+      </c>
+      <c r="I29" t="n">
+        <v>243.7254538431296</v>
       </c>
     </row>
     <row r="30">
@@ -1122,19 +1300,25 @@
         <v>39.578</v>
       </c>
       <c r="C30" t="n">
-        <v>39.59489571941684</v>
+        <v>39.5893268259241</v>
       </c>
       <c r="D30" t="n">
-        <v>98.28123553639824</v>
+        <v>98.3069907925985</v>
       </c>
       <c r="E30" t="n">
-        <v>282.4093569238649</v>
+        <v>98.84</v>
       </c>
       <c r="F30" t="n">
-        <v>-692464.9638504235</v>
+        <v>281.659</v>
       </c>
       <c r="G30" t="n">
-        <v>423.547386648174</v>
+        <v>282.4405299670423</v>
+      </c>
+      <c r="H30" t="n">
+        <v>246.359</v>
+      </c>
+      <c r="I30" t="n">
+        <v>245.1379194420235</v>
       </c>
     </row>
     <row r="31">
@@ -1145,19 +1329,25 @@
         <v>39.784</v>
       </c>
       <c r="C31" t="n">
-        <v>39.835487887761</v>
+        <v>39.82810218791684</v>
       </c>
       <c r="D31" t="n">
-        <v>102.2528117514226</v>
+        <v>102.2779212037435</v>
       </c>
       <c r="E31" t="n">
-        <v>283.8031235436476</v>
+        <v>102.808</v>
       </c>
       <c r="F31" t="n">
-        <v>-720776.2465251556</v>
+        <v>283.051</v>
       </c>
       <c r="G31" t="n">
-        <v>418.7034461080704</v>
+        <v>283.8339573545383</v>
+      </c>
+      <c r="H31" t="n">
+        <v>247.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>246.5092489091664</v>
       </c>
     </row>
     <row r="32">
@@ -1168,19 +1358,25 @@
         <v>39.986</v>
       </c>
       <c r="C32" t="n">
-        <v>40.06905750301303</v>
+        <v>40.05984042066852</v>
       </c>
       <c r="D32" t="n">
-        <v>106.2480954129872</v>
+        <v>106.27237665961</v>
       </c>
       <c r="E32" t="n">
-        <v>285.1576812072586</v>
+        <v>106.797</v>
       </c>
       <c r="F32" t="n">
-        <v>-749224.9482087888</v>
+        <v>284.403</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2282333711252</v>
+        <v>285.188117539837</v>
+      </c>
+      <c r="H32" t="n">
+        <v>248.804</v>
+      </c>
+      <c r="I32" t="n">
+        <v>247.8419923589634</v>
       </c>
     </row>
     <row r="33">
@@ -1191,19 +1387,25 @@
         <v>40.181</v>
       </c>
       <c r="C33" t="n">
-        <v>40.29567323377752</v>
+        <v>40.2846175575775</v>
       </c>
       <c r="D33" t="n">
-        <v>110.2663877016682</v>
+        <v>110.2896572516777</v>
       </c>
       <c r="E33" t="n">
-        <v>286.4753727852583</v>
+        <v>110.805</v>
       </c>
       <c r="F33" t="n">
-        <v>-777807.2679326327</v>
+        <v>285.717</v>
       </c>
       <c r="G33" t="n">
-        <v>410.0848392080422</v>
+        <v>286.5053565885584</v>
+      </c>
+      <c r="H33" t="n">
+        <v>249.974</v>
+      </c>
+      <c r="I33" t="n">
+        <v>249.1384527393908</v>
       </c>
     </row>
     <row r="34">
@@ -1214,19 +1416,25 @@
         <v>40.371</v>
       </c>
       <c r="C34" t="n">
-        <v>40.51540345441621</v>
+        <v>40.50250933465772</v>
       </c>
       <c r="D34" t="n">
-        <v>114.3069966497056</v>
+        <v>114.329070659401</v>
       </c>
       <c r="E34" t="n">
-        <v>287.7583201147589</v>
+        <v>114.833</v>
       </c>
       <c r="F34" t="n">
-        <v>-806519.627717523</v>
+        <v>286.996</v>
       </c>
       <c r="G34" t="n">
-        <v>406.2410377252729</v>
+        <v>287.7877994623163</v>
+      </c>
+      <c r="H34" t="n">
+        <v>251.111</v>
+      </c>
+      <c r="I34" t="n">
+        <v>250.400717044629</v>
       </c>
     </row>
     <row r="35">
@@ -1237,19 +1445,25 @@
         <v>40.555</v>
       </c>
       <c r="C35" t="n">
-        <v>40.7283162977181</v>
+        <v>40.7135912437712</v>
       </c>
       <c r="D35" t="n">
-        <v>118.3692371143136</v>
+        <v>118.3899321232334</v>
       </c>
       <c r="E35" t="n">
-        <v>289.0084512067822</v>
+        <v>118.879</v>
       </c>
       <c r="F35" t="n">
-        <v>-835358.6518680676</v>
+        <v>288.241</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6685704942283</v>
+        <v>289.0373772346771</v>
+      </c>
+      <c r="H35" t="n">
+        <v>252.218</v>
+      </c>
+      <c r="I35" t="n">
+        <v>251.6306827515115</v>
       </c>
     </row>
     <row r="36">
@@ -1260,19 +1474,25 @@
         <v>40.734</v>
       </c>
       <c r="C36" t="n">
-        <v>40.93447969688952</v>
+        <v>40.91793857506637</v>
       </c>
       <c r="D36" t="n">
-        <v>122.4524307557009</v>
+        <v>122.4715644224134</v>
       </c>
       <c r="E36" t="n">
-        <v>290.2275233922646</v>
+        <v>122.943</v>
       </c>
       <c r="F36" t="n">
-        <v>-864321.1487779989</v>
+        <v>289.455</v>
       </c>
       <c r="G36" t="n">
-        <v>399.3425577491892</v>
+        <v>290.2558502444952</v>
+      </c>
+      <c r="H36" t="n">
+        <v>253.295</v>
+      </c>
+      <c r="I36" t="n">
+        <v>252.8300803307706</v>
       </c>
     </row>
     <row r="37">
@@ -1283,19 +1503,25 @@
         <v>40.906</v>
       </c>
       <c r="C37" t="n">
-        <v>41.1339614192693</v>
+        <v>41.11562645105329</v>
       </c>
       <c r="D37" t="n">
-        <v>126.5559060188584</v>
+        <v>126.5732978565581</v>
       </c>
       <c r="E37" t="n">
-        <v>291.4171431131381</v>
+        <v>127.025</v>
       </c>
       <c r="F37" t="n">
-        <v>-893404.0948771251</v>
+        <v>290.638</v>
       </c>
       <c r="G37" t="n">
-        <v>396.2410111346018</v>
+        <v>291.4448278932742</v>
+      </c>
+      <c r="H37" t="n">
+        <v>254.345</v>
+      </c>
+      <c r="I37" t="n">
+        <v>254.0004925122706</v>
       </c>
     </row>
     <row r="38">
@@ -1306,19 +1532,25 @@
         <v>41.074</v>
       </c>
       <c r="C38" t="n">
-        <v>41.32682909358164</v>
+        <v>41.30672985414739</v>
       </c>
       <c r="D38" t="n">
-        <v>130.6789981183831</v>
+        <v>130.6944702303246</v>
       </c>
       <c r="E38" t="n">
-        <v>292.5787829255977</v>
+        <v>131.124</v>
       </c>
       <c r="F38" t="n">
-        <v>-922604.6204137686</v>
+        <v>291.793</v>
       </c>
       <c r="G38" t="n">
-        <v>393.344428171014</v>
+        <v>292.6057856538384</v>
+      </c>
+      <c r="H38" t="n">
+        <v>255.369</v>
+      </c>
+      <c r="I38" t="n">
+        <v>255.1433708501543</v>
       </c>
     </row>
     <row r="39">
@@ -1329,19 +1561,25 @@
         <v>41.236</v>
       </c>
       <c r="C39" t="n">
-        <v>41.51315023210446</v>
+        <v>41.49132364907461</v>
       </c>
       <c r="D39" t="n">
-        <v>134.8210490257624</v>
+        <v>134.8344268405586</v>
       </c>
       <c r="E39" t="n">
-        <v>293.7137961738878</v>
+        <v>135.24</v>
       </c>
       <c r="F39" t="n">
-        <v>-951919.9968176223</v>
+        <v>292.92</v>
       </c>
       <c r="G39" t="n">
-        <v>390.6354529104315</v>
+        <v>293.7400797487898</v>
+      </c>
+      <c r="H39" t="n">
+        <v>256.369</v>
+      </c>
+      <c r="I39" t="n">
+        <v>256.2600500296286</v>
       </c>
     </row>
     <row r="40">
@@ -1352,19 +1590,25 @@
         <v>41.393</v>
       </c>
       <c r="C40" t="n">
-        <v>41.69299224880912</v>
+        <v>41.66948260120469</v>
       </c>
       <c r="D40" t="n">
-        <v>138.9814074586662</v>
+        <v>138.9925204654729</v>
       </c>
       <c r="E40" t="n">
-        <v>294.8234297073732</v>
+        <v>139.371</v>
       </c>
       <c r="F40" t="n">
-        <v>-981347.625429352</v>
+        <v>294.022</v>
       </c>
       <c r="G40" t="n">
-        <v>388.0985905320772</v>
+        <v>294.8489598716325</v>
+      </c>
+      <c r="H40" t="n">
+        <v>257.345</v>
+      </c>
+      <c r="I40" t="n">
+        <v>257.3517602750501</v>
       </c>
     </row>
     <row r="41">
@@ -1375,19 +1619,25 @@
         <v>41.546</v>
       </c>
       <c r="C41" t="n">
-        <v>41.86642247428696</v>
+        <v>41.84128139163717</v>
       </c>
       <c r="D41" t="n">
-        <v>143.1594288718866</v>
+        <v>143.1681113554891</v>
       </c>
       <c r="E41" t="n">
-        <v>295.908834945873</v>
+        <v>143.518</v>
       </c>
       <c r="F41" t="n">
-        <v>-1010885.027417018</v>
+        <v>295.099</v>
       </c>
       <c r="G41" t="n">
-        <v>385.7199661508067</v>
+        <v>295.9335802556374</v>
+      </c>
+      <c r="H41" t="n">
+        <v>258.3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>258.419638153867</v>
       </c>
     </row>
     <row r="42">
@@ -1398,19 +1648,25 @@
         <v>41.695</v>
       </c>
       <c r="C42" t="n">
-        <v>42.03350816809722</v>
+        <v>42.00679462968107</v>
       </c>
       <c r="D42" t="n">
-        <v>147.3544754496366</v>
+        <v>147.3605672254553</v>
       </c>
       <c r="E42" t="n">
-        <v>296.9710775441828</v>
+        <v>147.68</v>
       </c>
       <c r="F42" t="n">
-        <v>-1040529.834727095</v>
+        <v>296.153</v>
       </c>
       <c r="G42" t="n">
-        <v>383.4871200629112</v>
+        <v>296.9950093414539</v>
+      </c>
+      <c r="H42" t="n">
+        <v>259.233</v>
+      </c>
+      <c r="I42" t="n">
+        <v>259.4647360190111</v>
       </c>
     </row>
     <row r="43">
@@ -1421,19 +1677,25 @@
         <v>41.84</v>
       </c>
       <c r="C43" t="n">
-        <v>42.19431652903292</v>
+        <v>42.16609686323044</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5659160989757</v>
+        <v>151.5692632480006</v>
       </c>
       <c r="E43" t="n">
-        <v>298.0111458633377</v>
+        <v>151.856</v>
       </c>
       <c r="F43" t="n">
-        <v>-1070279.781940709</v>
+        <v>297.184</v>
       </c>
       <c r="G43" t="n">
-        <v>381.3888331767341</v>
+        <v>298.0342382510801</v>
+      </c>
+      <c r="H43" t="n">
+        <v>260.146</v>
+      </c>
+      <c r="I43" t="n">
+        <v>260.4880302905806</v>
       </c>
     </row>
     <row r="44">
@@ -1444,19 +1706,25 @@
         <v>41.981</v>
       </c>
       <c r="C44" t="n">
-        <v>42.34891470369669</v>
+        <v>42.31926258743164</v>
       </c>
       <c r="D44" t="n">
-        <v>155.7931264441744</v>
+        <v>155.7935820478402</v>
       </c>
       <c r="E44" t="n">
-        <v>299.0299584211498</v>
+        <v>156.047</v>
       </c>
       <c r="F44" t="n">
-        <v>-1100132.698924655</v>
+        <v>298.194</v>
       </c>
       <c r="G44" t="n">
-        <v>379.4149775710025</v>
+        <v>299.0521882407876</v>
+      </c>
+      <c r="H44" t="n">
+        <v>261.04</v>
+      </c>
+      <c r="I44" t="n">
+        <v>261.490428743923</v>
       </c>
     </row>
     <row r="45">
@@ -1467,19 +1735,25 @@
         <v>42.119</v>
       </c>
       <c r="C45" t="n">
-        <v>42.49736979369701</v>
+        <v>42.46636625195661</v>
       </c>
       <c r="D45" t="n">
-        <v>160.0354888218662</v>
+        <v>160.0329136968747</v>
       </c>
       <c r="E45" t="n">
-        <v>300.0283704661401</v>
+        <v>160.251</v>
       </c>
       <c r="F45" t="n">
-        <v>-1130086.504182536</v>
+        <v>299.183</v>
       </c>
       <c r="G45" t="n">
-        <v>377.5563880683056</v>
+        <v>300.0497172771592</v>
+      </c>
+      <c r="H45" t="n">
+        <v>261.916</v>
+      </c>
+      <c r="I45" t="n">
+        <v>262.472776943814</v>
       </c>
     </row>
     <row r="46">
@@ -1490,19 +1764,25 @@
         <v>42.253</v>
       </c>
       <c r="C46" t="n">
-        <v>42.63974886171296</v>
+        <v>42.60748226713218</v>
       </c>
       <c r="D46" t="n">
-        <v>164.292392276859</v>
+        <v>164.2866557099578</v>
       </c>
       <c r="E46" t="n">
-        <v>301.0071797957853</v>
+        <v>164.469</v>
       </c>
       <c r="F46" t="n">
-        <v>-1160139.198824596</v>
+        <v>300.153</v>
       </c>
       <c r="G46" t="n">
-        <v>375.8047514618908</v>
+        <v>301.0276258572015</v>
+      </c>
+      <c r="H46" t="n">
+        <v>262.774</v>
+      </c>
+      <c r="I46" t="n">
+        <v>263.4358639420412</v>
       </c>
     </row>
     <row r="47">
@@ -1513,19 +1793,25 @@
         <v>42.385</v>
       </c>
       <c r="C47" t="n">
-        <v>42.77611893662623</v>
+        <v>42.74268500912691</v>
       </c>
       <c r="D47" t="n">
-        <v>168.5632325585063</v>
+        <v>168.554213041228</v>
       </c>
       <c r="E47" t="n">
-        <v>301.9671319209797</v>
+        <v>168.7</v>
       </c>
       <c r="F47" t="n">
-        <v>-1190288.861085902</v>
+        <v>301.104</v>
       </c>
       <c r="G47" t="n">
-        <v>374.1525106340764</v>
+        <v>301.986662174465</v>
+      </c>
+      <c r="H47" t="n">
+        <v>263.615</v>
+      </c>
+      <c r="I47" t="n">
+        <v>264.3804273373174</v>
       </c>
     </row>
     <row r="48">
@@ -1536,19 +1822,25 @@
         <v>42.515</v>
       </c>
       <c r="C48" t="n">
-        <v>42.90654701788073</v>
+        <v>42.87204882435736</v>
       </c>
       <c r="D48" t="n">
-        <v>172.8474121175516</v>
+        <v>172.8349980809198</v>
       </c>
       <c r="E48" t="n">
-        <v>302.908924662932</v>
+        <v>172.943</v>
       </c>
       <c r="F48" t="n">
-        <v>-1220533.641331936</v>
+        <v>302.036</v>
       </c>
       <c r="G48" t="n">
-        <v>372.592781286917</v>
+        <v>302.9275267174174</v>
+      </c>
+      <c r="H48" t="n">
+        <v>264.44</v>
+      </c>
+      <c r="I48" t="n">
+        <v>265.3071577812928</v>
       </c>
     </row>
     <row r="49">
@@ -1559,19 +1851,25 @@
         <v>42.642</v>
       </c>
       <c r="C49" t="n">
-        <v>43.03110007920011</v>
+        <v>42.9956480332452</v>
       </c>
       <c r="D49" t="n">
-        <v>177.1443401033744</v>
+        <v>177.1284306525801</v>
       </c>
       <c r="E49" t="n">
-        <v>303.8332122557389</v>
+        <v>177.2</v>
       </c>
       <c r="F49" t="n">
-        <v>-1250871.757498598</v>
+        <v>302.952</v>
       </c>
       <c r="G49" t="n">
-        <v>371.1192793954244</v>
+        <v>303.8508763733353</v>
+      </c>
+      <c r="H49" t="n">
+        <v>265.25</v>
+      </c>
+      <c r="I49" t="n">
+        <v>266.2167030018649</v>
       </c>
     </row>
     <row r="50">
@@ -1582,19 +1880,25 @@
         <v>42.767</v>
       </c>
       <c r="C50" t="n">
-        <v>43.14984507176876</v>
+        <v>43.11355693343216</v>
       </c>
       <c r="D50" t="n">
-        <v>181.4534323615825</v>
+        <v>181.4339380106343</v>
       </c>
       <c r="E50" t="n">
-        <v>304.7406090170791</v>
+        <v>181.468</v>
       </c>
       <c r="F50" t="n">
-        <v>-1281301.490920397</v>
+        <v>303.85</v>
       </c>
       <c r="G50" t="n">
-        <v>369.7262578100074</v>
+        <v>304.7573281001796</v>
+      </c>
+      <c r="H50" t="n">
+        <v>266.044</v>
+      </c>
+      <c r="I50" t="n">
+        <v>267.1096714045391</v>
       </c>
     </row>
     <row r="51">
@@ -1605,19 +1909,25 @@
         <v>42.889</v>
       </c>
       <c r="C51" t="n">
-        <v>43.26284892696319</v>
+        <v>43.22584980254064</v>
       </c>
       <c r="D51" t="n">
-        <v>185.7741114318972</v>
+        <v>185.7509548382501</v>
       </c>
       <c r="E51" t="n">
-        <v>305.6316926404617</v>
+        <v>185.748</v>
       </c>
       <c r="F51" t="n">
-        <v>-1311821.182506365</v>
+        <v>304.733</v>
       </c>
       <c r="G51" t="n">
-        <v>368.4084506928435</v>
+        <v>305.6474622199027</v>
+      </c>
+      <c r="H51" t="n">
+        <v>266.825</v>
+      </c>
+      <c r="I51" t="n">
+        <v>267.986635303849</v>
       </c>
     </row>
     <row r="52">
@@ -1628,19 +1938,25 @@
         <v>43.009</v>
       </c>
       <c r="C52" t="n">
-        <v>43.37017855870479</v>
+        <v>43.33260090055155</v>
       </c>
       <c r="D52" t="n">
-        <v>190.1058065462933</v>
+        <v>190.0789232454565</v>
       </c>
       <c r="E52" t="n">
-        <v>306.5070071549038</v>
+        <v>190.04</v>
       </c>
       <c r="F52" t="n">
-        <v>-1342429.229228226</v>
+        <v>305.6</v>
       </c>
       <c r="G52" t="n">
-        <v>367.1610246843359</v>
+        <v>306.5218253790798</v>
+      </c>
+      <c r="H52" t="n">
+        <v>267.592</v>
+      </c>
+      <c r="I52" t="n">
+        <v>268.8481338295215</v>
       </c>
     </row>
     <row r="53">
@@ -1651,19 +1967,25 @@
         <v>43.127</v>
       </c>
       <c r="C53" t="n">
-        <v>43.47190086549305</v>
+        <v>43.43388447185922</v>
       </c>
       <c r="D53" t="n">
-        <v>194.4479536273578</v>
+        <v>194.4172927674855</v>
       </c>
       <c r="E53" t="n">
-        <v>307.3670655915541</v>
+        <v>194.344</v>
       </c>
       <c r="F53" t="n">
-        <v>-1373124.080889568</v>
+        <v>306.452</v>
       </c>
       <c r="G53" t="n">
-        <v>365.9795358697924</v>
+        <v>307.3809332163907</v>
+      </c>
+      <c r="H53" t="n">
+        <v>268.345</v>
+      </c>
+      <c r="I53" t="n">
+        <v>269.6946755458974</v>
       </c>
     </row>
     <row r="54">
@@ -1674,19 +1996,25 @@
         <v>43.243</v>
       </c>
       <c r="C54" t="n">
-        <v>43.5680827321676</v>
+        <v>43.52977474705235</v>
       </c>
       <c r="D54" t="n">
-        <v>198.7999952868379</v>
+        <v>198.7655203633048</v>
       </c>
       <c r="E54" t="n">
-        <v>308.2123523914052</v>
+        <v>198.658</v>
       </c>
       <c r="F54" t="n">
-        <v>-1403904.237148469</v>
+        <v>307.29</v>
       </c>
       <c r="G54" t="n">
-        <v>364.8598917602274</v>
+        <v>308.2252727711092</v>
+      </c>
+      <c r="H54" t="n">
+        <v>269.086</v>
+      </c>
+      <c r="I54" t="n">
+        <v>270.5267408178988</v>
       </c>
     </row>
     <row r="55">
@@ -1697,19 +2025,25 @@
         <v>43.356</v>
       </c>
       <c r="C55" t="n">
-        <v>43.6587910314399</v>
+        <v>43.62034594446187</v>
       </c>
       <c r="D55" t="n">
-        <v>203.1613808243531</v>
+        <v>203.1230704143154</v>
       </c>
       <c r="E55" t="n">
-        <v>309.0433255836888</v>
+        <v>202.983</v>
       </c>
       <c r="F55" t="n">
-        <v>-1434768.244769198</v>
+        <v>308.114</v>
       </c>
       <c r="G55" t="n">
-        <v>363.7983176204478</v>
+        <v>309.0553046622001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>269.815</v>
+      </c>
+      <c r="I55" t="n">
+        <v>271.3447839524178</v>
       </c>
     </row>
     <row r="56">
@@ -1720,19 +2054,25 @@
         <v>43.467</v>
       </c>
       <c r="C56" t="n">
-        <v>43.74409262522805</v>
+        <v>43.70567227151022</v>
       </c>
       <c r="D56" t="n">
-        <v>207.5315662262511</v>
+        <v>207.4894147231959</v>
       </c>
       <c r="E56" t="n">
-        <v>309.8604187606713</v>
+        <v>207.319</v>
       </c>
       <c r="F56" t="n">
-        <v>-1465714.695081374</v>
+        <v>308.924</v>
       </c>
       <c r="G56" t="n">
-        <v>362.7913265768792</v>
+        <v>309.8714650637519</v>
+      </c>
+      <c r="H56" t="n">
+        <v>270.532</v>
+      </c>
+      <c r="I56" t="n">
+        <v>272.1492351402255</v>
       </c>
     </row>
     <row r="57">
@@ -1743,19 +2083,25 @@
         <v>43.575</v>
       </c>
       <c r="C57" t="n">
-        <v>43.82405436582356</v>
+        <v>43.78582792589041</v>
       </c>
       <c r="D57" t="n">
-        <v>211.9100141645875</v>
+        <v>211.8640325128715</v>
       </c>
       <c r="E57" t="n">
-        <v>310.6640428712667</v>
+        <v>211.664</v>
       </c>
       <c r="F57" t="n">
-        <v>-1496742.221627379</v>
+        <v>309.722</v>
       </c>
       <c r="G57" t="n">
-        <v>361.8356930205845</v>
+        <v>310.6741674991691</v>
+      </c>
+      <c r="H57" t="n">
+        <v>271.237</v>
+      </c>
+      <c r="I57" t="n">
+        <v>272.9405022202963</v>
       </c>
     </row>
     <row r="58">
@@ -1766,19 +2112,25 @@
         <v>43.68</v>
       </c>
       <c r="C58" t="n">
-        <v>43.89874309691332</v>
+        <v>43.86088709659897</v>
       </c>
       <c r="D58" t="n">
-        <v>216.2961939962159</v>
+        <v>216.2464104255935</v>
       </c>
       <c r="E58" t="n">
-        <v>311.4545878530545</v>
+        <v>216.02</v>
       </c>
       <c r="F58" t="n">
-        <v>-1527849.497980889</v>
+        <v>310.506</v>
       </c>
       <c r="G58" t="n">
-        <v>360.9284288905166</v>
+        <v>311.4638044737166</v>
+      </c>
+      <c r="H58" t="n">
+        <v>271.931</v>
+      </c>
+      <c r="I58" t="n">
+        <v>273.7189722856835</v>
       </c>
     </row>
     <row r="59">
@@ -1789,19 +2141,25 @@
         <v>43.782</v>
       </c>
       <c r="C59" t="n">
-        <v>43.96822565447739</v>
+        <v>43.93092396484329</v>
       </c>
       <c r="D59" t="n">
-        <v>220.6895817619729</v>
+        <v>220.6360425221169</v>
       </c>
       <c r="E59" t="n">
-        <v>312.2324241198655</v>
+        <v>220.384</v>
       </c>
       <c r="F59" t="n">
-        <v>-1559035.23572126</v>
+        <v>311.279</v>
       </c>
       <c r="G59" t="n">
-        <v>360.0667624806137</v>
+        <v>312.2407489625857</v>
+      </c>
+      <c r="H59" t="n">
+        <v>272.615</v>
+      </c>
+      <c r="I59" t="n">
+        <v>274.4850131477202</v>
       </c>
     </row>
     <row r="60">
@@ -1812,19 +2170,25 @@
         <v>43.881</v>
       </c>
       <c r="C60" t="n">
-        <v>44.03256886757921</v>
+        <v>43.9960127048404</v>
       </c>
       <c r="D60" t="n">
-        <v>225.0896601859481</v>
+        <v>225.0324302809609</v>
       </c>
       <c r="E60" t="n">
-        <v>312.997903920005</v>
+        <v>224.757</v>
       </c>
       <c r="F60" t="n">
-        <v>-1590298.182550081</v>
+        <v>312.039</v>
       </c>
       <c r="G60" t="n">
-        <v>359.248119463775</v>
+        <v>313.0053557695568</v>
+      </c>
+      <c r="H60" t="n">
+        <v>273.288</v>
+      </c>
+      <c r="I60" t="n">
+        <v>275.2389746732849</v>
       </c>
     </row>
     <row r="61">
@@ -1835,19 +2199,25 @@
         <v>43.976</v>
       </c>
       <c r="C61" t="n">
-        <v>44.09183955906308</v>
+        <v>44.05622748452166</v>
       </c>
       <c r="D61" t="n">
-        <v>229.4959186748278</v>
+        <v>229.4350825977473</v>
       </c>
       <c r="E61" t="n">
-        <v>313.7513625783851</v>
+        <v>229.139</v>
       </c>
       <c r="F61" t="n">
-        <v>-1621637.120537644</v>
+        <v>312.788</v>
       </c>
       <c r="G61" t="n">
-        <v>358.470105867622</v>
+        <v>313.7579627695333</v>
+      </c>
+      <c r="H61" t="n">
+        <v>273.951</v>
+      </c>
+      <c r="I61" t="n">
+        <v>275.9811900081142</v>
       </c>
     </row>
     <row r="62">
@@ -1858,19 +2228,25 @@
         <v>44.067</v>
       </c>
       <c r="C62" t="n">
-        <v>44.14610454617071</v>
+        <v>44.11164246615608</v>
       </c>
       <c r="D62" t="n">
-        <v>233.9078533173046</v>
+        <v>233.8435157846027</v>
       </c>
       <c r="E62" t="n">
-        <v>314.4931196342706</v>
+        <v>233.529</v>
       </c>
       <c r="F62" t="n">
-        <v>-1653050.864488319</v>
+        <v>313.526</v>
       </c>
       <c r="G62" t="n">
-        <v>357.7304927725003</v>
+        <v>314.498892046654</v>
+      </c>
+      <c r="H62" t="n">
+        <v>274.604</v>
+      </c>
+      <c r="I62" t="n">
+        <v>276.7119766976132</v>
       </c>
     </row>
     <row r="63">
@@ -1881,19 +2257,25 @@
         <v>44.236</v>
       </c>
       <c r="C63" t="n">
-        <v>44.23988465142931</v>
+        <v>44.20836965930095</v>
       </c>
       <c r="D63" t="n">
-        <v>242.7467688247082</v>
+        <v>242.6758270963763</v>
       </c>
       <c r="E63" t="n">
-        <v>315.9427343448066</v>
+        <v>242.329</v>
       </c>
       <c r="F63" t="n">
-        <v>-1716098.184113093</v>
+        <v>314.969</v>
       </c>
       <c r="G63" t="n">
-        <v>356.3582963458497</v>
+        <v>315.9469329944911</v>
+      </c>
+      <c r="H63" t="n">
+        <v>275.883</v>
+      </c>
+      <c r="I63" t="n">
+        <v>278.1404624079211</v>
       </c>
     </row>
     <row r="64">
@@ -1904,19 +2286,25 @@
         <v>44.386</v>
       </c>
       <c r="C64" t="n">
-        <v>44.31444362853579</v>
+        <v>44.28678748868386</v>
       </c>
       <c r="D64" t="n">
-        <v>251.602509038838</v>
+        <v>251.5256430242073</v>
       </c>
       <c r="E64" t="n">
-        <v>317.3490262567395</v>
+        <v>251.155</v>
       </c>
       <c r="F64" t="n">
-        <v>-1779431.259004295</v>
+        <v>316.37</v>
       </c>
       <c r="G64" t="n">
-        <v>355.1165088273838</v>
+        <v>317.3517770870263</v>
+      </c>
+      <c r="H64" t="n">
+        <v>277.127</v>
+      </c>
+      <c r="I64" t="n">
+        <v>279.5266972205505</v>
       </c>
     </row>
     <row r="65">
@@ -1927,19 +2315,25 @@
         <v>44.514</v>
       </c>
       <c r="C65" t="n">
-        <v>44.37031586227776</v>
+        <v>44.34748909767572</v>
       </c>
       <c r="D65" t="n">
-        <v>260.4712831732836</v>
+        <v>260.3893610106019</v>
       </c>
       <c r="E65" t="n">
-        <v>318.7140796584778</v>
+        <v>260</v>
       </c>
       <c r="F65" t="n">
-        <v>-1843041.64257267</v>
+        <v>317.73</v>
       </c>
       <c r="G65" t="n">
-        <v>353.9919956499238</v>
+        <v>318.7155288186132</v>
+      </c>
+      <c r="H65" t="n">
+        <v>278.336</v>
+      </c>
+      <c r="I65" t="n">
+        <v>280.872754763754</v>
       </c>
     </row>
     <row r="66">
@@ -1950,19 +2344,25 @@
         <v>44.62</v>
       </c>
       <c r="C66" t="n">
-        <v>44.40803568754713</v>
+        <v>44.391067579219</v>
       </c>
       <c r="D66" t="n">
-        <v>269.3494073135559</v>
+        <v>269.2634971215404</v>
       </c>
       <c r="E66" t="n">
-        <v>320.0398080834622</v>
+        <v>268.86</v>
       </c>
       <c r="F66" t="n">
-        <v>-1906921.287653987</v>
+        <v>319.053</v>
       </c>
       <c r="G66" t="n">
-        <v>352.9732262127461</v>
+        <v>320.0401218732509</v>
+      </c>
+      <c r="H66" t="n">
+        <v>279.515</v>
+      </c>
+      <c r="I66" t="n">
+        <v>282.180539724828</v>
       </c>
     </row>
     <row r="67">
@@ -1973,19 +2373,25 @@
         <v>44.702</v>
       </c>
       <c r="C67" t="n">
-        <v>44.42813739776894</v>
+        <v>44.41811598434655</v>
       </c>
       <c r="D67" t="n">
-        <v>278.2333044079808</v>
+        <v>278.1446860372727</v>
       </c>
       <c r="E67" t="n">
-        <v>321.3279741138904</v>
+        <v>277.728</v>
       </c>
       <c r="F67" t="n">
-        <v>-1971062.514389252</v>
+        <v>320.338</v>
       </c>
       <c r="G67" t="n">
-        <v>352.0500401549777</v>
+        <v>321.3273389347232</v>
+      </c>
+      <c r="H67" t="n">
+        <v>280.663</v>
+      </c>
+      <c r="I67" t="n">
+        <v>283.4518073933283</v>
       </c>
     </row>
     <row r="68">
@@ -1996,19 +2402,25 @@
         <v>44.758</v>
       </c>
       <c r="C68" t="n">
-        <v>44.43115525171461</v>
+        <v>44.42922732906764</v>
       </c>
       <c r="D68" t="n">
-        <v>287.1195042601112</v>
+        <v>287.0296810446503</v>
       </c>
       <c r="E68" t="n">
-        <v>322.5802063942047</v>
+        <v>286.599</v>
       </c>
       <c r="F68" t="n">
-        <v>-2035457.981778163</v>
+        <v>321.588</v>
       </c>
       <c r="G68" t="n">
-        <v>351.2134530935976</v>
+        <v>322.5788287055993</v>
+      </c>
+      <c r="H68" t="n">
+        <v>281.782</v>
+      </c>
+      <c r="I68" t="n">
+        <v>284.6881804576118</v>
       </c>
     </row>
     <row r="69">
@@ -2019,19 +2431,25 @@
         <v>44.788</v>
       </c>
       <c r="C69" t="n">
-        <v>44.41762347904395</v>
+        <v>44.42499459996912</v>
       </c>
       <c r="D69" t="n">
-        <v>296.0046435223688</v>
+        <v>295.9153540307001</v>
       </c>
       <c r="E69" t="n">
-        <v>323.7980143131915</v>
+        <v>295.466</v>
       </c>
       <c r="F69" t="n">
-        <v>-2100100.662395249</v>
+        <v>322.802</v>
       </c>
       <c r="G69" t="n">
-        <v>350.4554942907739</v>
+        <v>323.7961205940923</v>
+      </c>
+      <c r="H69" t="n">
+        <v>282.874</v>
+      </c>
+      <c r="I69" t="n">
+        <v>285.8911635052949</v>
       </c>
     </row>
     <row r="70">
@@ -2042,19 +2460,25 @@
         <v>44.792</v>
       </c>
       <c r="C70" t="n">
-        <v>44.38807628484015</v>
+        <v>44.4060107587988</v>
       </c>
       <c r="D70" t="n">
-        <v>304.8854656906905</v>
+        <v>304.7986954772132</v>
       </c>
       <c r="E70" t="n">
-        <v>324.982800727855</v>
+        <v>304.324</v>
       </c>
       <c r="F70" t="n">
-        <v>-2164983.819841007</v>
+        <v>323.983</v>
       </c>
       <c r="G70" t="n">
-        <v>349.7690703125416</v>
+        <v>324.980637442059</v>
+      </c>
+      <c r="H70" t="n">
+        <v>283.941</v>
+      </c>
+      <c r="I70" t="n">
+        <v>287.0621555942697</v>
       </c>
     </row>
     <row r="71">
@@ -2065,19 +2489,25 @@
         <v>44.769</v>
       </c>
       <c r="C71" t="n">
-        <v>44.34304785334137</v>
+        <v>44.37286874623693</v>
       </c>
       <c r="D71" t="n">
-        <v>313.7588210999983</v>
+        <v>313.6768144561665</v>
       </c>
       <c r="E71" t="n">
-        <v>326.1358730343478</v>
+        <v>313.166</v>
       </c>
       <c r="F71" t="n">
-        <v>-2230100.988567914</v>
+        <v>325.132</v>
       </c>
       <c r="G71" t="n">
-        <v>349.1478499675403</v>
+        <v>326.1337065995216</v>
+      </c>
+      <c r="H71" t="n">
+        <v>284.982</v>
+      </c>
+      <c r="I71" t="n">
+        <v>288.2024611943841</v>
       </c>
     </row>
     <row r="72">
@@ -2088,19 +2518,25 @@
         <v>44.721</v>
       </c>
       <c r="C72" t="n">
-        <v>44.28307235102779</v>
+        <v>44.32616148501612</v>
       </c>
       <c r="D72" t="n">
-        <v>322.621666920348</v>
+        <v>322.5469386258314</v>
       </c>
       <c r="E72" t="n">
-        <v>327.2584528371252</v>
+        <v>321.987</v>
       </c>
       <c r="F72" t="n">
-        <v>-2295445.955776654</v>
+        <v>326.248</v>
       </c>
       <c r="G72" t="n">
-        <v>348.5861667637167</v>
+        <v>327.2565695969593</v>
+      </c>
+      <c r="H72" t="n">
+        <v>286</v>
+      </c>
+      <c r="I72" t="n">
+        <v>289.3132997468082</v>
       </c>
     </row>
     <row r="73">
@@ -2111,19 +2547,25 @@
         <v>44.647</v>
       </c>
       <c r="C73" t="n">
-        <v>44.20868392918801</v>
+        <v>44.26648188251527</v>
       </c>
       <c r="D73" t="n">
-        <v>331.471067153643</v>
+        <v>331.4064142274502</v>
       </c>
       <c r="E73" t="n">
-        <v>328.3516844240561</v>
+        <v>330.779</v>
       </c>
       <c r="F73" t="n">
-        <v>-2361012.745123617</v>
+        <v>327.334</v>
       </c>
       <c r="G73" t="n">
-        <v>348.0789358605443</v>
+        <v>328.3503906231696</v>
+      </c>
+      <c r="H73" t="n">
+        <v>286.995</v>
+      </c>
+      <c r="I73" t="n">
+        <v>290.39581404549</v>
       </c>
     </row>
     <row r="74">
@@ -2134,19 +2576,25 @@
         <v>44.549</v>
       </c>
       <c r="C74" t="n">
-        <v>44.12041672606301</v>
+        <v>44.19442283292636</v>
       </c>
       <c r="D74" t="n">
-        <v>340.3041926308158</v>
+        <v>340.2527060823901</v>
       </c>
       <c r="E74" t="n">
-        <v>329.4166422201778</v>
+        <v>339.538</v>
       </c>
       <c r="F74" t="n">
-        <v>-2426795.602018678</v>
+        <v>328.389</v>
       </c>
       <c r="G74" t="n">
-        <v>347.6215830745294</v>
+        <v>329.416263981443</v>
+      </c>
+      <c r="H74" t="n">
+        <v>287.968</v>
+      </c>
+      <c r="I74" t="n">
+        <v>291.4510776106903</v>
       </c>
     </row>
     <row r="75">
@@ -2157,19 +2605,25 @@
         <v>44.428</v>
       </c>
       <c r="C75" t="n">
-        <v>44.01880486864526</v>
+        <v>44.11057721907273</v>
       </c>
       <c r="D75" t="n">
-        <v>349.118321009404</v>
+        <v>349.0833975896916</v>
       </c>
       <c r="E75" t="n">
-        <v>330.454337364326</v>
+        <v>348.258</v>
       </c>
       <c r="F75" t="n">
-        <v>-2492788.980323799</v>
+        <v>329.415</v>
       </c>
       <c r="G75" t="n">
-        <v>347.2099839538128</v>
+        <v>330.4552206683279</v>
+      </c>
+      <c r="H75" t="n">
+        <v>288.92</v>
+      </c>
+      <c r="I75" t="n">
+        <v>292.480101196635</v>
       </c>
     </row>
     <row r="76">
@@ -2180,19 +2634,25 @@
         <v>44.286</v>
       </c>
       <c r="C76" t="n">
-        <v>43.9043824741949</v>
+        <v>44.01553791394146</v>
       </c>
       <c r="D76" t="n">
-        <v>357.9108367714564</v>
+        <v>357.8961907239529</v>
       </c>
       <c r="E76" t="n">
-        <v>331.465723529656</v>
+        <v>356.935</v>
       </c>
       <c r="F76" t="n">
-        <v>-2558987.530289516</v>
+        <v>330.412</v>
       </c>
       <c r="G76" t="n">
-        <v>346.8404113014482</v>
+        <v>331.4682341960431</v>
+      </c>
+      <c r="H76" t="n">
+        <v>289.851</v>
+      </c>
+      <c r="I76" t="n">
+        <v>293.4838385525068</v>
       </c>
     </row>
     <row r="77">
@@ -2203,19 +2663,25 @@
         <v>44.124</v>
       </c>
       <c r="C77" t="n">
-        <v>43.77768365152265</v>
+        <v>43.90989778198006</v>
       </c>
       <c r="D77" t="n">
-        <v>366.6792312217188</v>
+        <v>366.688906033496</v>
       </c>
       <c r="E77" t="n">
-        <v>332.451702090029</v>
+        <v>365.562</v>
       </c>
       <c r="F77" t="n">
-        <v>-2625386.087588543</v>
+        <v>331.381</v>
       </c>
       <c r="G77" t="n">
-        <v>346.5094898174801</v>
+        <v>332.4562257605407</v>
+      </c>
+      <c r="H77" t="n">
+        <v>290.763</v>
+      </c>
+      <c r="I77" t="n">
+        <v>294.4631915372759</v>
       </c>
     </row>
     <row r="78">
@@ -2226,19 +2692,25 @@
         <v>43.944</v>
       </c>
       <c r="C78" t="n">
-        <v>43.63924250207988</v>
+        <v>43.79424968019805</v>
       </c>
       <c r="D78" t="n">
-        <v>375.4211024860546</v>
+        <v>375.4594826387713</v>
       </c>
       <c r="E78" t="n">
-        <v>333.4131267185439</v>
+        <v>374.137</v>
       </c>
       <c r="F78" t="n">
-        <v>-2691979.66332455</v>
+        <v>332.323</v>
       </c>
       <c r="G78" t="n">
-        <v>346.2141567632678</v>
+        <v>333.420068841534</v>
+      </c>
+      <c r="H78" t="n">
+        <v>291.656</v>
+      </c>
+      <c r="I78" t="n">
+        <v>295.4190146734344</v>
       </c>
     </row>
     <row r="79">
@@ -2249,19 +2721,25 @@
         <v>43.747</v>
       </c>
       <c r="C79" t="n">
-        <v>43.48959312088781</v>
+        <v>43.66918645910621</v>
       </c>
       <c r="D79" t="n">
-        <v>384.1341555100704</v>
+        <v>384.2059782309672</v>
       </c>
       <c r="E79" t="n">
-        <v>334.350807491505</v>
+        <v>382.655</v>
       </c>
       <c r="F79" t="n">
-        <v>-2758763.434910077</v>
+        <v>333.239</v>
       </c>
       <c r="G79" t="n">
-        <v>345.9516277398475</v>
+        <v>334.3605933077965</v>
+      </c>
+      <c r="H79" t="n">
+        <v>292.531</v>
+      </c>
+      <c r="I79" t="n">
+        <v>296.3521192119105</v>
       </c>
     </row>
     <row r="80">
@@ -2272,19 +2750,25 @@
         <v>43.536</v>
       </c>
       <c r="C80" t="n">
-        <v>43.32926959733291</v>
+        <v>43.53530096352035</v>
       </c>
       <c r="D80" t="n">
-        <v>392.8162020579095</v>
+        <v>392.926569070792</v>
       </c>
       <c r="E80" t="n">
-        <v>335.2655145603084</v>
+        <v>391.113</v>
       </c>
       <c r="F80" t="n">
-        <v>-2825732.737721051</v>
+        <v>334.13</v>
       </c>
       <c r="G80" t="n">
-        <v>345.7193668248951</v>
+        <v>335.2785890902437</v>
+      </c>
+      <c r="H80" t="n">
+        <v>293.389</v>
+      </c>
+      <c r="I80" t="n">
+        <v>297.2632767698114</v>
       </c>
     </row>
     <row r="81">
@@ -2295,19 +2779,25 @@
         <v>43.311</v>
       </c>
       <c r="C81" t="n">
-        <v>43.15880601584961</v>
+        <v>43.39318603325144</v>
       </c>
       <c r="D81" t="n">
-        <v>401.4651607111966</v>
+        <v>401.6195499874062</v>
       </c>
       <c r="E81" t="n">
-        <v>336.1579814447155</v>
+        <v>399.508</v>
       </c>
       <c r="F81" t="n">
-        <v>-2892883.057447015</v>
+        <v>334.995</v>
       </c>
       <c r="G81" t="n">
-        <v>345.5150604373779</v>
+        <v>336.1748094762756</v>
+      </c>
+      <c r="H81" t="n">
+        <v>294.229</v>
+      </c>
+      <c r="I81" t="n">
+        <v>298.1532225937523</v>
       </c>
     </row>
     <row r="82">
@@ -2318,19 +2808,25 @@
         <v>43.075</v>
       </c>
       <c r="C82" t="n">
-        <v>42.97873645650863</v>
+        <v>43.24343450370009</v>
       </c>
       <c r="D82" t="n">
-        <v>410.0790568681066</v>
+        <v>410.2833343774823</v>
       </c>
       <c r="E82" t="n">
-        <v>337.0289079934121</v>
+        <v>407.836</v>
       </c>
       <c r="F82" t="n">
-        <v>-2960210.023066014</v>
+        <v>335.836</v>
       </c>
       <c r="G82" t="n">
-        <v>345.3365944009146</v>
+        <v>337.0499740712991</v>
+      </c>
+      <c r="H82" t="n">
+        <v>295.052</v>
+      </c>
+      <c r="I82" t="n">
+        <v>299.0226584940865</v>
       </c>
     </row>
     <row r="83">
@@ -2341,19 +2837,25 @@
         <v>42.447</v>
       </c>
       <c r="C83" t="n">
-        <v>42.49004127188249</v>
+        <v>42.83953600630829</v>
       </c>
       <c r="D83" t="n">
-        <v>431.4484043573684</v>
+        <v>431.8057183418132</v>
       </c>
       <c r="E83" t="n">
-        <v>339.1163048609338</v>
+        <v>428.356</v>
       </c>
       <c r="F83" t="n">
-        <v>-3129272.796682437</v>
+        <v>337.838</v>
       </c>
       <c r="G83" t="n">
-        <v>344.9911760264838</v>
+        <v>339.1502155026034</v>
+      </c>
+      <c r="H83" t="n">
+        <v>297.042</v>
+      </c>
+      <c r="I83" t="n">
+        <v>301.1108515214107</v>
       </c>
     </row>
     <row r="84">
@@ -2364,433 +2866,25 @@
         <v>41.782</v>
       </c>
       <c r="C84" t="n">
-        <v>41.95299154765142</v>
+        <v>42.40087685633161</v>
       </c>
       <c r="D84" t="n">
-        <v>452.5609662057642</v>
+        <v>453.1170769422532</v>
       </c>
       <c r="E84" t="n">
-        <v>341.0828887951217</v>
+        <v>448.424</v>
       </c>
       <c r="F84" t="n">
-        <v>-3299350.810540574</v>
+        <v>339.705</v>
       </c>
       <c r="G84" t="n">
-        <v>344.7694772340335</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>11500</v>
-      </c>
-      <c r="B85" t="n">
-        <v>41.099</v>
-      </c>
-      <c r="C85" t="n">
-        <v>41.37593203796618</v>
-      </c>
-      <c r="D85" t="n">
-        <v>473.3946513709345</v>
-      </c>
-      <c r="E85" t="n">
-        <v>342.9374471879703</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-3470385.991290724</v>
-      </c>
-      <c r="G85" t="n">
-        <v>344.6503127512481</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>12000</v>
-      </c>
-      <c r="B86" t="n">
-        <v>40.416</v>
-      </c>
-      <c r="C86" t="n">
-        <v>40.76720742079104</v>
-      </c>
-      <c r="D86" t="n">
-        <v>493.9315411719391</v>
-      </c>
-      <c r="E86" t="n">
-        <v>344.6880002295948</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-3642324.461583198</v>
-      </c>
-      <c r="G86" t="n">
-        <v>344.6163775035022</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>12500</v>
-      </c>
-      <c r="B87" t="n">
-        <v>39.744</v>
-      </c>
-      <c r="C87" t="n">
-        <v>40.13516231581157</v>
-      </c>
-      <c r="D87" t="n">
-        <v>514.1578892558736</v>
-      </c>
-      <c r="E87" t="n">
-        <v>346.3419262577784</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-3815116.188966357</v>
-      </c>
-      <c r="G87" t="n">
-        <v>344.653442486168</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>13000</v>
-      </c>
-      <c r="B88" t="n">
-        <v>39.092</v>
-      </c>
-      <c r="C88" t="n">
-        <v>39.48814129761763</v>
-      </c>
-      <c r="D88" t="n">
-        <v>534.0641215721886</v>
-      </c>
-      <c r="E88" t="n">
-        <v>347.906062508707</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-3988714.691041003</v>
-      </c>
-      <c r="G88" t="n">
-        <v>344.7497405322639</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>13500</v>
-      </c>
-      <c r="B89" t="n">
-        <v>38.467</v>
-      </c>
-      <c r="C89" t="n">
-        <v>38.83448890553377</v>
-      </c>
-      <c r="D89" t="n">
-        <v>553.6448363527161</v>
-      </c>
-      <c r="E89" t="n">
-        <v>349.3867868435393</v>
-      </c>
-      <c r="F89" t="n">
-        <v>-4163076.786035065</v>
-      </c>
-      <c r="G89" t="n">
-        <v>344.8954919406453</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>14000</v>
-      </c>
-      <c r="B90" t="n">
-        <v>37.873</v>
-      </c>
-      <c r="C90" t="n">
-        <v>38.18254965103752</v>
-      </c>
-      <c r="D90" t="n">
-        <v>572.8988040959753</v>
-      </c>
-      <c r="E90" t="n">
-        <v>350.7900846050513</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-4338162.380374744</v>
-      </c>
-      <c r="G90" t="n">
-        <v>345.0825343979034</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>14500</v>
-      </c>
-      <c r="B91" t="n">
-        <v>37.312</v>
-      </c>
-      <c r="C91" t="n">
-        <v>37.54066802341904</v>
-      </c>
-      <c r="D91" t="n">
-        <v>591.8289675547264</v>
-      </c>
-      <c r="E91" t="n">
-        <v>352.1216037373243</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-4513934.286636476</v>
-      </c>
-      <c r="G91" t="n">
-        <v>345.3040315633739</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B92" t="n">
-        <v>36.785</v>
-      </c>
-      <c r="C92" t="n">
-        <v>36.91718849414274</v>
-      </c>
-      <c r="D92" t="n">
-        <v>610.4424417260113</v>
-      </c>
-      <c r="E92" t="n">
-        <v>353.3867005573899</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-4690358.066634838</v>
-      </c>
-      <c r="G92" t="n">
-        <v>345.5542416128741</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>15500</v>
-      </c>
-      <c r="B93" t="n">
-        <v>36.292</v>
-      </c>
-      <c r="C93" t="n">
-        <v>36.32045552024042</v>
-      </c>
-      <c r="D93" t="n">
-        <v>628.7505138431241</v>
-      </c>
-      <c r="E93" t="n">
-        <v>354.5904780190448</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-4867401.89545207</v>
-      </c>
-      <c r="G93" t="n">
-        <v>345.8283319314985</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>16000</v>
-      </c>
-      <c r="B94" t="n">
-        <v>35.832</v>
-      </c>
-      <c r="C94" t="n">
-        <v>35.75881354697427</v>
-      </c>
-      <c r="D94" t="n">
-        <v>646.7686433690842</v>
-      </c>
-      <c r="E94" t="n">
-        <v>355.7378178998019</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-5045036.443027747</v>
-      </c>
-      <c r="G94" t="n">
-        <v>346.1222296490236</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>16500</v>
-      </c>
-      <c r="B95" t="n">
-        <v>35.404</v>
-      </c>
-      <c r="C95" t="n">
-        <v>35.2406070099435</v>
-      </c>
-      <c r="D95" t="n">
-        <v>664.5164619912996</v>
-      </c>
-      <c r="E95" t="n">
-        <v>356.8334080335284</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-5223234.770561919</v>
-      </c>
-      <c r="G95" t="n">
-        <v>346.4325002484804</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>17000</v>
-      </c>
-      <c r="B96" t="n">
-        <v>35.006</v>
-      </c>
-      <c r="C96" t="n">
-        <v>34.77418033676401</v>
-      </c>
-      <c r="D96" t="n">
-        <v>682.0177736171672</v>
-      </c>
-      <c r="E96" t="n">
-        <v>357.8817654766033</v>
-      </c>
-      <c r="F96" t="n">
-        <v>-5401972.239485089</v>
-      </c>
-      <c r="G96" t="n">
-        <v>346.7562483359689</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>17500</v>
-      </c>
-      <c r="B97" t="n">
-        <v>34.638</v>
-      </c>
-      <c r="C97" t="n">
-        <v>34.36787794841704</v>
-      </c>
-      <c r="D97" t="n">
-        <v>699.3005543704312</v>
-      </c>
-      <c r="E97" t="n">
-        <v>358.8872563151805</v>
-      </c>
-      <c r="F97" t="n">
-        <v>-5581226.431145228</v>
-      </c>
-      <c r="G97" t="n">
-        <v>347.0910360337633</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>18000</v>
-      </c>
-      <c r="B98" t="n">
-        <v>34.296</v>
-      </c>
-      <c r="C98" t="n">
-        <v>34.0300442603392</v>
-      </c>
-      <c r="D98" t="n">
-        <v>716.3969525881465</v>
-      </c>
-      <c r="E98" t="n">
-        <v>359.8541126815355</v>
-      </c>
-      <c r="F98" t="n">
-        <v>-5760977.075679493</v>
-      </c>
-      <c r="G98" t="n">
-        <v>347.4348154848281</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>18500</v>
-      </c>
-      <c r="B99" t="n">
-        <v>33.98</v>
-      </c>
-      <c r="C99" t="n">
-        <v>33.76902368330929</v>
-      </c>
-      <c r="D99" t="n">
-        <v>733.3432888181328</v>
-      </c>
-      <c r="E99" t="n">
-        <v>360.7864474384919</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-5941205.988793967</v>
-      </c>
-      <c r="G99" t="n">
-        <v>347.7858727300081</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>19000</v>
-      </c>
-      <c r="B100" t="n">
-        <v>33.687</v>
-      </c>
-      <c r="C100" t="n">
-        <v>33.59316062417379</v>
-      </c>
-      <c r="D100" t="n">
-        <v>750.1800558168339</v>
-      </c>
-      <c r="E100" t="n">
-        <v>361.6882669051981</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-6121897.01538193</v>
-      </c>
-      <c r="G100" t="n">
-        <v>348.1427808066376</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>19500</v>
-      </c>
-      <c r="B101" t="n">
-        <v>33.415</v>
-      </c>
-      <c r="C101" t="n">
-        <v>33.51079948644407</v>
-      </c>
-      <c r="D101" t="n">
-        <v>766.9519185475034</v>
-      </c>
-      <c r="E101" t="n">
-        <v>362.5634819296251</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-6303035.979080186</v>
-      </c>
-      <c r="G101" t="n">
-        <v>348.5043603672635</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B102" t="n">
-        <v>33.164</v>
-      </c>
-      <c r="C102" t="n">
-        <v>33.53028467079014</v>
-      </c>
-      <c r="D102" t="n">
-        <v>783.7077141786631</v>
-      </c>
-      <c r="E102" t="n">
-        <v>363.4159175590165</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-6484610.637001668</v>
-      </c>
-      <c r="G102" t="n">
-        <v>348.8696464643745</v>
+        <v>341.1331040987049</v>
+      </c>
+      <c r="H84" t="n">
+        <v>298.939</v>
+      </c>
+      <c r="I84" t="n">
+        <v>303.0847246195078</v>
       </c>
     </row>
   </sheetData>
